--- a/testes/PC/J5_Log_excel.xlsx
+++ b/testes/PC/J5_Log_excel.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,14 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACEW\Documents\Android\androidconcurrency\testes\PC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{8CB0A1EB-A752-43A8-BF29-7565A97E52BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B90479FE-C4C4-40B8-A7CB-E6901534E0C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="J5_Log_agreggated" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -85,7 +92,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -613,329 +620,7 @@
     <cellStyle name="Título 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="55">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <fill>
         <patternFill>
@@ -1308,11 +993,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B309" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="O341" sqref="O341"/>
+    <sheetView tabSelected="1" topLeftCell="N323" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Y341" sqref="Y341"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2917,77 +2602,77 @@
         <v>18</v>
       </c>
       <c r="C36">
-        <f>AVERAGE(C6:C35)</f>
-        <v>197.3</v>
+        <f>MEDIAN(C6:C35)</f>
+        <v>200.5</v>
       </c>
       <c r="D36">
-        <f t="shared" ref="D36:F36" si="0">AVERAGE(D6:D35)</f>
-        <v>196.6</v>
+        <f t="shared" ref="D36:F36" si="0">MEDIAN(D6:D35)</f>
+        <v>197</v>
       </c>
       <c r="E36">
         <f t="shared" si="0"/>
-        <v>159.86666666666667</v>
+        <v>160</v>
       </c>
       <c r="F36">
         <f t="shared" si="0"/>
-        <v>171.9</v>
+        <v>173</v>
       </c>
       <c r="I36" t="s">
         <v>18</v>
       </c>
       <c r="J36">
-        <f>AVERAGE(J6:J35)</f>
-        <v>195.3</v>
+        <f>MEDIAN(J6:J35)</f>
+        <v>198.5</v>
       </c>
       <c r="K36">
-        <f t="shared" ref="K36" si="1">AVERAGE(K6:K35)</f>
-        <v>194.6</v>
+        <f t="shared" ref="K36:M36" si="1">MEDIAN(K6:K35)</f>
+        <v>195</v>
       </c>
       <c r="L36">
-        <f t="shared" ref="L36" si="2">AVERAGE(L6:L35)</f>
-        <v>159.69999999999999</v>
+        <f t="shared" si="1"/>
+        <v>160</v>
       </c>
       <c r="M36">
-        <f t="shared" ref="M36" si="3">AVERAGE(M6:M35)</f>
-        <v>171.73333333333332</v>
+        <f t="shared" si="1"/>
+        <v>173</v>
       </c>
       <c r="P36" t="s">
         <v>18</v>
       </c>
       <c r="Q36">
-        <f>AVERAGE(Q6:Q35)</f>
-        <v>208.7</v>
+        <f>MEDIAN(Q6:Q35)</f>
+        <v>210</v>
       </c>
       <c r="R36">
-        <f t="shared" ref="R36" si="4">AVERAGE(R6:R35)</f>
-        <v>204.46666666666667</v>
+        <f t="shared" ref="R36:T36" si="2">MEDIAN(R6:R35)</f>
+        <v>204</v>
       </c>
       <c r="S36">
-        <f t="shared" ref="S36" si="5">AVERAGE(S6:S35)</f>
-        <v>160.4</v>
+        <f t="shared" si="2"/>
+        <v>159.5</v>
       </c>
       <c r="T36">
-        <f t="shared" ref="T36" si="6">AVERAGE(T6:T35)</f>
-        <v>177.06666666666666</v>
+        <f t="shared" si="2"/>
+        <v>178.5</v>
       </c>
       <c r="W36" t="s">
         <v>18</v>
       </c>
       <c r="X36">
-        <f>AVERAGE(X6:X35)</f>
-        <v>203.8</v>
+        <f>MEDIAN(X6:X35)</f>
+        <v>205</v>
       </c>
       <c r="Y36">
-        <f t="shared" ref="Y36" si="7">AVERAGE(Y6:Y35)</f>
-        <v>199.8</v>
+        <f t="shared" ref="Y36:AA36" si="3">MEDIAN(Y6:Y35)</f>
+        <v>199.5</v>
       </c>
       <c r="Z36">
-        <f t="shared" ref="Z36" si="8">AVERAGE(Z6:Z35)</f>
-        <v>160.19999999999999</v>
+        <f t="shared" si="3"/>
+        <v>159.5</v>
       </c>
       <c r="AA36">
-        <f t="shared" ref="AA36" si="9">AVERAGE(AA6:AA35)</f>
-        <v>176.9</v>
+        <f t="shared" si="3"/>
+        <v>177.5</v>
       </c>
     </row>
     <row r="37" spans="2:27" x14ac:dyDescent="0.25">
@@ -2999,15 +2684,15 @@
         <v>7.5599999999999943</v>
       </c>
       <c r="D37">
-        <f t="shared" ref="D37:F37" si="10">AVEDEV(D6:D35)</f>
+        <f t="shared" ref="D37:F37" si="4">AVEDEV(D6:D35)</f>
         <v>5.7066666666666679</v>
       </c>
       <c r="E37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>7.4</v>
       </c>
       <c r="F37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>5.919999999999999</v>
       </c>
       <c r="I37" t="s">
@@ -3018,15 +2703,15 @@
         <v>7.5599999999999943</v>
       </c>
       <c r="K37">
-        <f t="shared" ref="K37:M37" si="11">AVEDEV(K6:K35)</f>
+        <f t="shared" ref="K37:M37" si="5">AVEDEV(K6:K35)</f>
         <v>5.7066666666666679</v>
       </c>
       <c r="L37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>7.3666666666666663</v>
       </c>
       <c r="M37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>5.9200000000000026</v>
       </c>
       <c r="P37" t="s">
@@ -3037,15 +2722,15 @@
         <v>4.9600000000000026</v>
       </c>
       <c r="R37">
-        <f t="shared" ref="R37:T37" si="12">AVEDEV(R6:R35)</f>
+        <f t="shared" ref="R37:T37" si="6">AVEDEV(R6:R35)</f>
         <v>6.0311111111111115</v>
       </c>
       <c r="S37">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>4.7600000000000007</v>
       </c>
       <c r="T37">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>4.8622222222222229</v>
       </c>
       <c r="W37" t="s">
@@ -3056,15 +2741,15 @@
         <v>4.7733333333333308</v>
       </c>
       <c r="Y37">
-        <f t="shared" ref="Y37:AA37" si="13">AVEDEV(Y6:Y35)</f>
+        <f t="shared" ref="Y37:AA37" si="7">AVEDEV(Y6:Y35)</f>
         <v>5.8666666666666663</v>
       </c>
       <c r="Z37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>4.6133333333333324</v>
       </c>
       <c r="AA37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>4.8466666666666658</v>
       </c>
     </row>
@@ -4651,77 +4336,77 @@
         <v>18</v>
       </c>
       <c r="C73">
-        <f>AVERAGE(C43:C72)</f>
-        <v>194.76666666666668</v>
+        <f>MEDIAN(C43:C72)</f>
+        <v>200</v>
       </c>
       <c r="D73">
-        <f t="shared" ref="D73" si="14">AVERAGE(D43:D72)</f>
-        <v>192.8</v>
+        <f t="shared" ref="D73:F73" si="8">MEDIAN(D43:D72)</f>
+        <v>195</v>
       </c>
       <c r="E73">
-        <f t="shared" ref="E73" si="15">AVERAGE(E43:E72)</f>
-        <v>67.8</v>
+        <f t="shared" si="8"/>
+        <v>68</v>
       </c>
       <c r="F73">
-        <f t="shared" ref="F73" si="16">AVERAGE(F43:F72)</f>
-        <v>157.86666666666667</v>
+        <f t="shared" si="8"/>
+        <v>158.5</v>
       </c>
       <c r="I73" t="s">
         <v>18</v>
       </c>
       <c r="J73">
-        <f>AVERAGE(J43:J72)</f>
-        <v>192.76666666666668</v>
+        <f>MEDIAN(J43:J72)</f>
+        <v>198</v>
       </c>
       <c r="K73">
-        <f t="shared" ref="K73" si="17">AVERAGE(K43:K72)</f>
-        <v>190.9</v>
+        <f t="shared" ref="K73:M73" si="9">MEDIAN(K43:K72)</f>
+        <v>193.5</v>
       </c>
       <c r="L73">
-        <f t="shared" ref="L73" si="18">AVERAGE(L43:L72)</f>
-        <v>67.8</v>
+        <f t="shared" si="9"/>
+        <v>68</v>
       </c>
       <c r="M73">
-        <f t="shared" ref="M73" si="19">AVERAGE(M43:M72)</f>
-        <v>157.83333333333334</v>
+        <f t="shared" si="9"/>
+        <v>158.5</v>
       </c>
       <c r="P73" t="s">
         <v>18</v>
       </c>
       <c r="Q73">
-        <f>AVERAGE(Q43:Q72)</f>
-        <v>207.66666666666666</v>
+        <f>MEDIAN(Q43:Q72)</f>
+        <v>208</v>
       </c>
       <c r="R73">
-        <f t="shared" ref="R73" si="20">AVERAGE(R43:R72)</f>
-        <v>198.7</v>
+        <f t="shared" ref="R73:T73" si="10">MEDIAN(R43:R72)</f>
+        <v>200</v>
       </c>
       <c r="S73">
-        <f t="shared" ref="S73" si="21">AVERAGE(S43:S72)</f>
-        <v>69.5</v>
+        <f t="shared" si="10"/>
+        <v>69</v>
       </c>
       <c r="T73">
-        <f t="shared" ref="T73" si="22">AVERAGE(T43:T72)</f>
-        <v>157.19999999999999</v>
+        <f t="shared" si="10"/>
+        <v>157</v>
       </c>
       <c r="W73" t="s">
         <v>18</v>
       </c>
       <c r="X73">
-        <f>AVERAGE(X43:X72)</f>
-        <v>203.2</v>
+        <f>MEDIAN(X43:X72)</f>
+        <v>204</v>
       </c>
       <c r="Y73">
-        <f t="shared" ref="Y73" si="23">AVERAGE(Y43:Y72)</f>
-        <v>194.4</v>
+        <f t="shared" ref="Y73:AA73" si="11">MEDIAN(Y43:Y72)</f>
+        <v>196</v>
       </c>
       <c r="Z73">
-        <f t="shared" ref="Z73" si="24">AVERAGE(Z43:Z72)</f>
-        <v>69.5</v>
+        <f t="shared" si="11"/>
+        <v>69</v>
       </c>
       <c r="AA73">
-        <f t="shared" ref="AA73" si="25">AVERAGE(AA43:AA72)</f>
-        <v>157.16666666666666</v>
+        <f t="shared" si="11"/>
+        <v>157</v>
       </c>
     </row>
     <row r="74" spans="2:27" x14ac:dyDescent="0.25">
@@ -4733,15 +4418,15 @@
         <v>11.208888888888891</v>
       </c>
       <c r="D74">
-        <f t="shared" ref="D74:F74" si="26">AVEDEV(D43:D72)</f>
+        <f t="shared" ref="D74:F74" si="12">AVEDEV(D43:D72)</f>
         <v>7.0799999999999956</v>
       </c>
       <c r="E74">
-        <f t="shared" si="26"/>
+        <f t="shared" si="12"/>
         <v>2.9466666666666668</v>
       </c>
       <c r="F74">
-        <f t="shared" si="26"/>
+        <f t="shared" si="12"/>
         <v>3.2933333333333317</v>
       </c>
       <c r="I74" t="s">
@@ -4752,15 +4437,15 @@
         <v>11.208888888888891</v>
       </c>
       <c r="K74">
-        <f t="shared" ref="K74:M74" si="27">AVEDEV(K43:K72)</f>
+        <f t="shared" ref="K74:M74" si="13">AVEDEV(K43:K72)</f>
         <v>7.0066666666666642</v>
       </c>
       <c r="L74">
-        <f t="shared" si="27"/>
+        <f t="shared" si="13"/>
         <v>2.9466666666666668</v>
       </c>
       <c r="M74">
-        <f t="shared" si="27"/>
+        <f t="shared" si="13"/>
         <v>3.2666666666666648</v>
       </c>
       <c r="P74" t="s">
@@ -4771,15 +4456,15 @@
         <v>4.1333333333333355</v>
       </c>
       <c r="R74">
-        <f t="shared" ref="R74:T74" si="28">AVEDEV(R43:R72)</f>
+        <f t="shared" ref="R74:T74" si="14">AVEDEV(R43:R72)</f>
         <v>6.4066666666666681</v>
       </c>
       <c r="S74">
-        <f t="shared" si="28"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="T74">
-        <f t="shared" si="28"/>
+        <f t="shared" si="14"/>
         <v>3.693333333333332</v>
       </c>
       <c r="W74" t="s">
@@ -4790,15 +4475,15 @@
         <v>3.7200000000000006</v>
       </c>
       <c r="Y74">
-        <f t="shared" ref="Y74:AA74" si="29">AVEDEV(Y43:Y72)</f>
+        <f t="shared" ref="Y74:AA74" si="15">AVEDEV(Y43:Y72)</f>
         <v>6.1066666666666665</v>
       </c>
       <c r="Z74">
-        <f t="shared" si="29"/>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
       <c r="AA74">
-        <f t="shared" si="29"/>
+        <f t="shared" si="15"/>
         <v>3.6555555555555541</v>
       </c>
     </row>
@@ -6385,77 +6070,77 @@
         <v>18</v>
       </c>
       <c r="C110">
-        <f>AVERAGE(C80:C109)</f>
-        <v>197.03333333333333</v>
+        <f>MEDIAN(C80:C109)</f>
+        <v>198.5</v>
       </c>
       <c r="D110">
-        <f t="shared" ref="D110" si="30">AVERAGE(D80:D109)</f>
-        <v>186.86666666666667</v>
+        <f t="shared" ref="D110:F110" si="16">MEDIAN(D80:D109)</f>
+        <v>188</v>
       </c>
       <c r="E110">
-        <f t="shared" ref="E110" si="31">AVERAGE(E80:E109)</f>
-        <v>36.366666666666667</v>
+        <f t="shared" si="16"/>
+        <v>36.5</v>
       </c>
       <c r="F110">
-        <f t="shared" ref="F110" si="32">AVERAGE(F80:F109)</f>
-        <v>129.76666666666668</v>
+        <f t="shared" si="16"/>
+        <v>130</v>
       </c>
       <c r="I110" t="s">
         <v>18</v>
       </c>
       <c r="J110">
-        <f>AVERAGE(J80:J109)</f>
-        <v>195.13333333333333</v>
+        <f>MEDIAN(J80:J109)</f>
+        <v>196.5</v>
       </c>
       <c r="K110">
-        <f t="shared" ref="K110" si="33">AVERAGE(K80:K109)</f>
-        <v>185.1</v>
+        <f t="shared" ref="K110:M110" si="17">MEDIAN(K80:K109)</f>
+        <v>186</v>
       </c>
       <c r="L110">
-        <f t="shared" ref="L110" si="34">AVERAGE(L80:L109)</f>
-        <v>36.366666666666667</v>
+        <f t="shared" si="17"/>
+        <v>36.5</v>
       </c>
       <c r="M110">
-        <f t="shared" ref="M110" si="35">AVERAGE(M80:M109)</f>
-        <v>129.76666666666668</v>
+        <f t="shared" si="17"/>
+        <v>130</v>
       </c>
       <c r="P110" t="s">
         <v>18</v>
       </c>
       <c r="Q110">
-        <f>AVERAGE(Q80:Q109)</f>
-        <v>204.66666666666666</v>
+        <f>MEDIAN(Q80:Q109)</f>
+        <v>206</v>
       </c>
       <c r="R110">
-        <f t="shared" ref="R110" si="36">AVERAGE(R80:R109)</f>
-        <v>188.16666666666666</v>
+        <f t="shared" ref="R110:T110" si="18">MEDIAN(R80:R109)</f>
+        <v>189</v>
       </c>
       <c r="S110">
-        <f t="shared" ref="S110" si="37">AVERAGE(S80:S109)</f>
+        <f t="shared" si="18"/>
         <v>41.5</v>
       </c>
       <c r="T110">
-        <f t="shared" ref="T110" si="38">AVERAGE(T80:T109)</f>
-        <v>131.26666666666668</v>
+        <f t="shared" si="18"/>
+        <v>132</v>
       </c>
       <c r="W110" t="s">
         <v>18</v>
       </c>
       <c r="X110">
-        <f>AVERAGE(X80:X109)</f>
-        <v>200.3</v>
+        <f>MEDIAN(X80:X109)</f>
+        <v>201.5</v>
       </c>
       <c r="Y110">
-        <f t="shared" ref="Y110" si="39">AVERAGE(Y80:Y109)</f>
-        <v>184.26666666666668</v>
+        <f t="shared" ref="Y110:AA110" si="19">MEDIAN(Y80:Y109)</f>
+        <v>184.5</v>
       </c>
       <c r="Z110">
-        <f t="shared" ref="Z110" si="40">AVERAGE(Z80:Z109)</f>
+        <f t="shared" si="19"/>
         <v>41.5</v>
       </c>
       <c r="AA110">
-        <f t="shared" ref="AA110" si="41">AVERAGE(AA80:AA109)</f>
-        <v>131.26666666666668</v>
+        <f t="shared" si="19"/>
+        <v>132</v>
       </c>
     </row>
     <row r="111" spans="2:27" x14ac:dyDescent="0.25">
@@ -6467,15 +6152,15 @@
         <v>6.8311111111111114</v>
       </c>
       <c r="D111">
-        <f t="shared" ref="D111:F111" si="42">AVEDEV(D80:D109)</f>
+        <f t="shared" ref="D111:F111" si="20">AVEDEV(D80:D109)</f>
         <v>7.8755555555555548</v>
       </c>
       <c r="E111">
-        <f t="shared" si="42"/>
+        <f t="shared" si="20"/>
         <v>1.9666666666666666</v>
       </c>
       <c r="F111">
-        <f t="shared" si="42"/>
+        <f t="shared" si="20"/>
         <v>5.9466666666666637</v>
       </c>
       <c r="I111" t="s">
@@ -6486,15 +6171,15 @@
         <v>6.7244444444444449</v>
       </c>
       <c r="K111">
-        <f t="shared" ref="K111:M111" si="43">AVEDEV(K80:K109)</f>
+        <f t="shared" ref="K111:M111" si="21">AVEDEV(K80:K109)</f>
         <v>7.6333333333333337</v>
       </c>
       <c r="L111">
-        <f t="shared" si="43"/>
+        <f t="shared" si="21"/>
         <v>1.9666666666666666</v>
       </c>
       <c r="M111">
-        <f t="shared" si="43"/>
+        <f t="shared" si="21"/>
         <v>5.9466666666666637</v>
       </c>
       <c r="P111" t="s">
@@ -6505,15 +6190,15 @@
         <v>4.6222222222222245</v>
       </c>
       <c r="R111">
-        <f t="shared" ref="R111:T111" si="44">AVEDEV(R80:R109)</f>
+        <f t="shared" ref="R111:T111" si="22">AVEDEV(R80:R109)</f>
         <v>8.0777777777777793</v>
       </c>
       <c r="S111">
-        <f t="shared" si="44"/>
+        <f t="shared" si="22"/>
         <v>2.2333333333333334</v>
       </c>
       <c r="T111">
-        <f t="shared" si="44"/>
+        <f t="shared" si="22"/>
         <v>4.1822222222222214</v>
       </c>
       <c r="W111" t="s">
@@ -6524,15 +6209,15 @@
         <v>4.2599999999999989</v>
       </c>
       <c r="Y111">
-        <f t="shared" ref="Y111:AA111" si="45">AVEDEV(Y80:Y109)</f>
+        <f t="shared" ref="Y111:AA111" si="23">AVEDEV(Y80:Y109)</f>
         <v>7.5333333333333332</v>
       </c>
       <c r="Z111">
-        <f t="shared" si="45"/>
+        <f t="shared" si="23"/>
         <v>2.2333333333333334</v>
       </c>
       <c r="AA111">
-        <f t="shared" si="45"/>
+        <f t="shared" si="23"/>
         <v>4.1822222222222214</v>
       </c>
     </row>
@@ -8119,77 +7804,77 @@
         <v>18</v>
       </c>
       <c r="C147">
-        <f>AVERAGE(C117:C146)</f>
-        <v>183.1</v>
+        <f>MEDIAN(C117:C146)</f>
+        <v>184</v>
       </c>
       <c r="D147">
-        <f t="shared" ref="D147" si="46">AVERAGE(D117:D146)</f>
-        <v>184.86666666666667</v>
+        <f t="shared" ref="D147:F147" si="24">MEDIAN(D117:D146)</f>
+        <v>183</v>
       </c>
       <c r="E147">
-        <f t="shared" ref="E147" si="47">AVERAGE(E117:E146)</f>
-        <v>87.8</v>
+        <f t="shared" si="24"/>
+        <v>88.5</v>
       </c>
       <c r="F147">
-        <f t="shared" ref="F147" si="48">AVERAGE(F117:F146)</f>
-        <v>151.36666666666667</v>
+        <f t="shared" si="24"/>
+        <v>154</v>
       </c>
       <c r="I147" t="s">
         <v>18</v>
       </c>
       <c r="J147">
-        <f>AVERAGE(J117:J146)</f>
-        <v>181.13333333333333</v>
+        <f>MEDIAN(J117:J146)</f>
+        <v>182</v>
       </c>
       <c r="K147">
-        <f t="shared" ref="K147" si="49">AVERAGE(K117:K146)</f>
-        <v>182.96666666666667</v>
+        <f t="shared" ref="K147:M147" si="25">MEDIAN(K117:K146)</f>
+        <v>181</v>
       </c>
       <c r="L147">
-        <f t="shared" ref="L147" si="50">AVERAGE(L117:L146)</f>
-        <v>85.833333333333329</v>
+        <f t="shared" si="25"/>
+        <v>86.5</v>
       </c>
       <c r="M147">
-        <f t="shared" ref="M147" si="51">AVERAGE(M117:M146)</f>
-        <v>149.43333333333334</v>
+        <f t="shared" si="25"/>
+        <v>152</v>
       </c>
       <c r="P147" t="s">
         <v>18</v>
       </c>
       <c r="Q147">
-        <f>AVERAGE(Q117:Q146)</f>
-        <v>188.53333333333333</v>
+        <f>MEDIAN(Q117:Q146)</f>
+        <v>189.5</v>
       </c>
       <c r="R147">
-        <f t="shared" ref="R147" si="52">AVERAGE(R117:R146)</f>
-        <v>184.13333333333333</v>
+        <f t="shared" ref="R147:T147" si="26">MEDIAN(R117:R146)</f>
+        <v>185.5</v>
       </c>
       <c r="S147">
-        <f t="shared" ref="S147" si="53">AVERAGE(S117:S146)</f>
-        <v>93.733333333333334</v>
+        <f t="shared" si="26"/>
+        <v>94</v>
       </c>
       <c r="T147">
-        <f t="shared" ref="T147" si="54">AVERAGE(T117:T146)</f>
-        <v>150.46666666666667</v>
+        <f t="shared" si="26"/>
+        <v>158.5</v>
       </c>
       <c r="W147" t="s">
         <v>18</v>
       </c>
       <c r="X147">
-        <f>AVERAGE(X117:X146)</f>
-        <v>181.26666666666668</v>
+        <f>MEDIAN(X117:X146)</f>
+        <v>182</v>
       </c>
       <c r="Y147">
-        <f t="shared" ref="Y147" si="55">AVERAGE(Y117:Y146)</f>
-        <v>176.6</v>
+        <f t="shared" ref="Y147:AA147" si="27">MEDIAN(Y117:Y146)</f>
+        <v>178</v>
       </c>
       <c r="Z147">
-        <f t="shared" ref="Z147" si="56">AVERAGE(Z117:Z146)</f>
-        <v>85.733333333333334</v>
+        <f t="shared" si="27"/>
+        <v>86</v>
       </c>
       <c r="AA147">
-        <f t="shared" ref="AA147" si="57">AVERAGE(AA117:AA146)</f>
-        <v>142.5</v>
+        <f t="shared" si="27"/>
+        <v>150.5</v>
       </c>
     </row>
     <row r="148" spans="2:27" x14ac:dyDescent="0.25">
@@ -8201,15 +7886,15 @@
         <v>5.4266666666666667</v>
       </c>
       <c r="D148">
-        <f t="shared" ref="D148:F148" si="58">AVEDEV(D117:D146)</f>
+        <f t="shared" ref="D148:F148" si="28">AVEDEV(D117:D146)</f>
         <v>5.6577777777777785</v>
       </c>
       <c r="E148">
-        <f t="shared" si="58"/>
+        <f t="shared" si="28"/>
         <v>3.973333333333334</v>
       </c>
       <c r="F148">
-        <f t="shared" si="58"/>
+        <f t="shared" si="28"/>
         <v>7.1599999999999984</v>
       </c>
       <c r="I148" t="s">
@@ -8220,15 +7905,15 @@
         <v>5.3911111111111119</v>
       </c>
       <c r="K148">
-        <f t="shared" ref="K148:M148" si="59">AVEDEV(K117:K146)</f>
+        <f t="shared" ref="K148:M148" si="29">AVEDEV(K117:K146)</f>
         <v>5.6311111111111112</v>
       </c>
       <c r="L148">
-        <f t="shared" si="59"/>
+        <f t="shared" si="29"/>
         <v>3.9333333333333345</v>
       </c>
       <c r="M148">
-        <f t="shared" si="59"/>
+        <f t="shared" si="29"/>
         <v>7.0799999999999992</v>
       </c>
       <c r="P148" t="s">
@@ -8239,15 +7924,15 @@
         <v>4.1955555555555559</v>
       </c>
       <c r="R148">
-        <f t="shared" ref="R148:T148" si="60">AVEDEV(R117:R146)</f>
+        <f t="shared" ref="R148:T148" si="30">AVEDEV(R117:R146)</f>
         <v>6.4400000000000013</v>
       </c>
       <c r="S148">
-        <f t="shared" si="60"/>
+        <f t="shared" si="30"/>
         <v>3.951111111111111</v>
       </c>
       <c r="T148">
-        <f t="shared" si="60"/>
+        <f t="shared" si="30"/>
         <v>14.840000000000005</v>
       </c>
       <c r="W148" t="s">
@@ -8258,15 +7943,15 @@
         <v>3.897777777777776</v>
       </c>
       <c r="Y148">
-        <f t="shared" ref="Y148:AA148" si="61">AVEDEV(Y117:Y146)</f>
+        <f t="shared" ref="Y148:AA148" si="31">AVEDEV(Y117:Y146)</f>
         <v>6.1066666666666682</v>
       </c>
       <c r="Z148">
-        <f t="shared" si="61"/>
+        <f t="shared" si="31"/>
         <v>3.951111111111111</v>
       </c>
       <c r="AA148">
-        <f t="shared" si="61"/>
+        <f t="shared" si="31"/>
         <v>14.866666666666667</v>
       </c>
     </row>
@@ -9853,77 +9538,77 @@
         <v>18</v>
       </c>
       <c r="C184">
-        <f>AVERAGE(C154:C183)</f>
-        <v>166.33333333333334</v>
+        <f>MEDIAN(C154:C183)</f>
+        <v>174.5</v>
       </c>
       <c r="D184">
-        <f t="shared" ref="D184" si="62">AVERAGE(D154:D183)</f>
-        <v>177.83333333333334</v>
+        <f t="shared" ref="D184:F184" si="32">MEDIAN(D154:D183)</f>
+        <v>180</v>
       </c>
       <c r="E184">
-        <f t="shared" ref="E184" si="63">AVERAGE(E154:E183)</f>
-        <v>128.56666666666666</v>
+        <f t="shared" si="32"/>
+        <v>128.5</v>
       </c>
       <c r="F184">
-        <f t="shared" ref="F184" si="64">AVERAGE(F154:F183)</f>
-        <v>151.33333333333334</v>
+        <f t="shared" si="32"/>
+        <v>152</v>
       </c>
       <c r="I184" t="s">
         <v>18</v>
       </c>
       <c r="J184">
-        <f>AVERAGE(J154:J183)</f>
-        <v>164.53333333333333</v>
+        <f>MEDIAN(J154:J183)</f>
+        <v>172.5</v>
       </c>
       <c r="K184">
-        <f t="shared" ref="K184" si="65">AVERAGE(K154:K183)</f>
-        <v>176.16666666666666</v>
+        <f t="shared" ref="K184:M184" si="33">MEDIAN(K154:K183)</f>
+        <v>178</v>
       </c>
       <c r="L184">
-        <f t="shared" ref="L184" si="66">AVERAGE(L154:L183)</f>
-        <v>128.16666666666666</v>
+        <f t="shared" si="33"/>
+        <v>128.5</v>
       </c>
       <c r="M184">
-        <f t="shared" ref="M184" si="67">AVERAGE(M154:M183)</f>
-        <v>150.93333333333334</v>
+        <f t="shared" si="33"/>
+        <v>151</v>
       </c>
       <c r="P184" t="s">
         <v>18</v>
       </c>
       <c r="Q184">
-        <f>AVERAGE(Q154:Q183)</f>
-        <v>188.16666666666666</v>
+        <f>MEDIAN(Q154:Q183)</f>
+        <v>189</v>
       </c>
       <c r="R184">
-        <f t="shared" ref="R184" si="68">AVERAGE(R154:R183)</f>
-        <v>180.93333333333334</v>
+        <f t="shared" ref="R184:T184" si="34">MEDIAN(R154:R183)</f>
+        <v>180</v>
       </c>
       <c r="S184">
-        <f t="shared" ref="S184" si="69">AVERAGE(S154:S183)</f>
-        <v>121.76666666666667</v>
+        <f t="shared" si="34"/>
+        <v>128.5</v>
       </c>
       <c r="T184">
-        <f t="shared" ref="T184" si="70">AVERAGE(T154:T183)</f>
-        <v>152.76666666666668</v>
+        <f t="shared" si="34"/>
+        <v>155</v>
       </c>
       <c r="W184" t="s">
         <v>18</v>
       </c>
       <c r="X184">
-        <f>AVERAGE(X154:X183)</f>
-        <v>181.86666666666667</v>
+        <f>MEDIAN(X154:X183)</f>
+        <v>181.5</v>
       </c>
       <c r="Y184">
-        <f t="shared" ref="Y184" si="71">AVERAGE(Y154:Y183)</f>
-        <v>177.06666666666666</v>
+        <f t="shared" ref="Y184:AA184" si="35">MEDIAN(Y154:Y183)</f>
+        <v>177</v>
       </c>
       <c r="Z184">
-        <f t="shared" ref="Z184" si="72">AVERAGE(Z154:Z183)</f>
-        <v>121.33333333333333</v>
+        <f t="shared" si="35"/>
+        <v>128</v>
       </c>
       <c r="AA184">
-        <f t="shared" ref="AA184" si="73">AVERAGE(AA154:AA183)</f>
-        <v>152.43333333333334</v>
+        <f t="shared" si="35"/>
+        <v>155</v>
       </c>
     </row>
     <row r="185" spans="2:27" x14ac:dyDescent="0.25">
@@ -9935,15 +9620,15 @@
         <v>16.577777777777758</v>
       </c>
       <c r="D185">
-        <f t="shared" ref="D185:F185" si="74">AVEDEV(D154:D183)</f>
+        <f t="shared" ref="D185:F185" si="36">AVEDEV(D154:D183)</f>
         <v>8.3999999999999986</v>
       </c>
       <c r="E185">
-        <f t="shared" si="74"/>
+        <f t="shared" si="36"/>
         <v>6.2333333333333334</v>
       </c>
       <c r="F185">
-        <f t="shared" si="74"/>
+        <f t="shared" si="36"/>
         <v>5.6444444444444439</v>
       </c>
       <c r="I185" t="s">
@@ -9954,15 +9639,15 @@
         <v>16.35111111111113</v>
       </c>
       <c r="K185">
-        <f t="shared" ref="K185:M185" si="75">AVEDEV(K154:K183)</f>
+        <f t="shared" ref="K185:M185" si="37">AVEDEV(K154:K183)</f>
         <v>8.4111111111111132</v>
       </c>
       <c r="L185">
-        <f t="shared" si="75"/>
+        <f t="shared" si="37"/>
         <v>6.166666666666667</v>
       </c>
       <c r="M185">
-        <f t="shared" si="75"/>
+        <f t="shared" si="37"/>
         <v>5.5377777777777775</v>
       </c>
       <c r="P185" t="s">
@@ -9973,15 +9658,15 @@
         <v>6.7555555555555564</v>
       </c>
       <c r="R185">
-        <f t="shared" ref="R185:T185" si="76">AVEDEV(R154:R183)</f>
+        <f t="shared" ref="R185:T185" si="38">AVEDEV(R154:R183)</f>
         <v>6.2666666666666666</v>
       </c>
       <c r="S185">
-        <f t="shared" si="76"/>
+        <f t="shared" si="38"/>
         <v>16.16222222222223</v>
       </c>
       <c r="T185">
-        <f t="shared" si="76"/>
+        <f t="shared" si="38"/>
         <v>7.8955555555555517</v>
       </c>
       <c r="W185" t="s">
@@ -9992,15 +9677,15 @@
         <v>5.7333333333333334</v>
       </c>
       <c r="Y185">
-        <f t="shared" ref="Y185:AA185" si="77">AVEDEV(Y154:Y183)</f>
+        <f t="shared" ref="Y185:AA185" si="39">AVEDEV(Y154:Y183)</f>
         <v>4.8088888888888883</v>
       </c>
       <c r="Z185">
-        <f t="shared" si="77"/>
+        <f t="shared" si="39"/>
         <v>16.466666666666672</v>
       </c>
       <c r="AA185">
-        <f t="shared" si="77"/>
+        <f t="shared" si="39"/>
         <v>7.9177777777777765</v>
       </c>
     </row>
@@ -11587,77 +11272,77 @@
         <v>18</v>
       </c>
       <c r="C221">
-        <f>AVERAGE(C191:C220)</f>
-        <v>173.7</v>
+        <f>MEDIAN(C191:C220)</f>
+        <v>174.5</v>
       </c>
       <c r="D221">
-        <f t="shared" ref="D221" si="78">AVERAGE(D191:D220)</f>
-        <v>170.6</v>
+        <f t="shared" ref="D221:F221" si="40">MEDIAN(D191:D220)</f>
+        <v>168.5</v>
       </c>
       <c r="E221">
-        <f t="shared" ref="E221" si="79">AVERAGE(E191:E220)</f>
-        <v>53.5</v>
+        <f t="shared" si="40"/>
+        <v>53</v>
       </c>
       <c r="F221">
-        <f t="shared" ref="F221" si="80">AVERAGE(F191:F220)</f>
-        <v>141.06666666666666</v>
+        <f t="shared" si="40"/>
+        <v>142</v>
       </c>
       <c r="I221" t="s">
         <v>18</v>
       </c>
       <c r="J221">
-        <f>AVERAGE(J191:J220)</f>
-        <v>172.2</v>
+        <f>MEDIAN(J191:J220)</f>
+        <v>173</v>
       </c>
       <c r="K221">
-        <f t="shared" ref="K221" si="81">AVERAGE(K191:K220)</f>
-        <v>169.4</v>
+        <f t="shared" ref="K221:M221" si="41">MEDIAN(K191:K220)</f>
+        <v>167.5</v>
       </c>
       <c r="L221">
-        <f t="shared" ref="L221" si="82">AVERAGE(L191:L220)</f>
-        <v>53.43333333333333</v>
+        <f t="shared" si="41"/>
+        <v>53</v>
       </c>
       <c r="M221">
-        <f t="shared" ref="M221" si="83">AVERAGE(M191:M220)</f>
-        <v>141.06666666666666</v>
+        <f t="shared" si="41"/>
+        <v>142</v>
       </c>
       <c r="P221" t="s">
         <v>18</v>
       </c>
       <c r="Q221">
-        <f>AVERAGE(Q191:Q220)</f>
-        <v>183.03333333333333</v>
+        <f>MEDIAN(Q191:Q220)</f>
+        <v>183.5</v>
       </c>
       <c r="R221">
-        <f t="shared" ref="R221" si="84">AVERAGE(R191:R220)</f>
-        <v>174.1</v>
+        <f t="shared" ref="R221:T221" si="42">MEDIAN(R191:R220)</f>
+        <v>176</v>
       </c>
       <c r="S221">
-        <f t="shared" ref="S221" si="85">AVERAGE(S191:S220)</f>
-        <v>54.233333333333334</v>
+        <f t="shared" si="42"/>
+        <v>56</v>
       </c>
       <c r="T221">
-        <f t="shared" ref="T221" si="86">AVERAGE(T191:T220)</f>
-        <v>140.53333333333333</v>
+        <f t="shared" si="42"/>
+        <v>141.5</v>
       </c>
       <c r="W221" t="s">
         <v>18</v>
       </c>
       <c r="X221">
-        <f>AVERAGE(X191:X220)</f>
-        <v>178</v>
+        <f>MEDIAN(X191:X220)</f>
+        <v>180</v>
       </c>
       <c r="Y221">
-        <f t="shared" ref="Y221" si="87">AVERAGE(Y191:Y220)</f>
-        <v>169.6</v>
+        <f t="shared" ref="Y221:AA221" si="43">MEDIAN(Y191:Y220)</f>
+        <v>171</v>
       </c>
       <c r="Z221">
-        <f t="shared" ref="Z221" si="88">AVERAGE(Z191:Z220)</f>
-        <v>54.233333333333334</v>
+        <f t="shared" si="43"/>
+        <v>56</v>
       </c>
       <c r="AA221">
-        <f t="shared" ref="AA221" si="89">AVERAGE(AA191:AA220)</f>
-        <v>140.53333333333333</v>
+        <f t="shared" si="43"/>
+        <v>141.5</v>
       </c>
     </row>
     <row r="222" spans="2:27" x14ac:dyDescent="0.25">
@@ -11669,15 +11354,15 @@
         <v>5.9200000000000008</v>
       </c>
       <c r="D222">
-        <f t="shared" ref="D222:F222" si="90">AVEDEV(D191:D220)</f>
+        <f t="shared" ref="D222:F222" si="44">AVEDEV(D191:D220)</f>
         <v>6.9466666666666663</v>
       </c>
       <c r="E222">
-        <f t="shared" si="90"/>
+        <f t="shared" si="44"/>
         <v>4.0999999999999996</v>
       </c>
       <c r="F222">
-        <f t="shared" si="90"/>
+        <f t="shared" si="44"/>
         <v>4.8577777777777786</v>
       </c>
       <c r="I222" t="s">
@@ -11688,15 +11373,15 @@
         <v>5.7866666666666671</v>
       </c>
       <c r="K222">
-        <f t="shared" ref="K222:M222" si="91">AVEDEV(K191:K220)</f>
+        <f t="shared" ref="K222:M222" si="45">AVEDEV(K191:K220)</f>
         <v>6.9200000000000008</v>
       </c>
       <c r="L222">
-        <f t="shared" si="91"/>
+        <f t="shared" si="45"/>
         <v>4.0244444444444438</v>
       </c>
       <c r="M222">
-        <f t="shared" si="91"/>
+        <f t="shared" si="45"/>
         <v>4.8577777777777786</v>
       </c>
       <c r="P222" t="s">
@@ -11707,15 +11392,15 @@
         <v>7.9</v>
       </c>
       <c r="R222">
-        <f t="shared" ref="R222:T222" si="92">AVEDEV(R191:R220)</f>
+        <f t="shared" ref="R222:T222" si="46">AVEDEV(R191:R220)</f>
         <v>7.7600000000000007</v>
       </c>
       <c r="S222">
-        <f t="shared" si="92"/>
+        <f t="shared" si="46"/>
         <v>4.3199999999999994</v>
       </c>
       <c r="T222">
-        <f t="shared" si="92"/>
+        <f t="shared" si="46"/>
         <v>5.0622222222222222</v>
       </c>
       <c r="W222" t="s">
@@ -11726,15 +11411,15 @@
         <v>7.8666666666666663</v>
       </c>
       <c r="Y222">
-        <f t="shared" ref="Y222:AA222" si="93">AVEDEV(Y191:Y220)</f>
+        <f t="shared" ref="Y222:AA222" si="47">AVEDEV(Y191:Y220)</f>
         <v>6.4133333333333349</v>
       </c>
       <c r="Z222">
-        <f t="shared" si="93"/>
+        <f t="shared" si="47"/>
         <v>4.3199999999999994</v>
       </c>
       <c r="AA222">
-        <f t="shared" si="93"/>
+        <f t="shared" si="47"/>
         <v>5.0622222222222222</v>
       </c>
     </row>
@@ -13321,77 +13006,77 @@
         <v>18</v>
       </c>
       <c r="C258">
-        <f>AVERAGE(C228:C257)</f>
-        <v>172.43333333333334</v>
+        <f>MEDIAN(C228:C257)</f>
+        <v>172.5</v>
       </c>
       <c r="D258">
-        <f t="shared" ref="D258" si="94">AVERAGE(D228:D257)</f>
-        <v>168.93333333333334</v>
+        <f t="shared" ref="D258:F258" si="48">MEDIAN(D228:D257)</f>
+        <v>168</v>
       </c>
       <c r="E258">
-        <f t="shared" ref="E258" si="95">AVERAGE(E228:E257)</f>
-        <v>45</v>
+        <f t="shared" si="48"/>
+        <v>46</v>
       </c>
       <c r="F258">
-        <f t="shared" ref="F258" si="96">AVERAGE(F228:F257)</f>
-        <v>120.83333333333333</v>
+        <f t="shared" si="48"/>
+        <v>120</v>
       </c>
       <c r="I258" t="s">
         <v>18</v>
       </c>
       <c r="J258">
-        <f>AVERAGE(J228:J257)</f>
-        <v>171.73333333333332</v>
+        <f>MEDIAN(J228:J257)</f>
+        <v>172</v>
       </c>
       <c r="K258">
-        <f t="shared" ref="K258" si="97">AVERAGE(K228:K257)</f>
-        <v>168.43333333333334</v>
+        <f t="shared" ref="K258:M258" si="49">MEDIAN(K228:K257)</f>
+        <v>167.5</v>
       </c>
       <c r="L258">
-        <f t="shared" ref="L258" si="98">AVERAGE(L228:L257)</f>
-        <v>42.966666666666669</v>
+        <f t="shared" si="49"/>
+        <v>44</v>
       </c>
       <c r="M258">
-        <f t="shared" ref="M258" si="99">AVERAGE(M228:M257)</f>
-        <v>118.8</v>
+        <f t="shared" si="49"/>
+        <v>118</v>
       </c>
       <c r="P258" t="s">
         <v>18</v>
       </c>
       <c r="Q258">
-        <f>AVERAGE(Q228:Q257)</f>
-        <v>172.86666666666667</v>
+        <f>MEDIAN(Q228:Q257)</f>
+        <v>172</v>
       </c>
       <c r="R258">
-        <f t="shared" ref="R258" si="100">AVERAGE(R228:R257)</f>
-        <v>173.13333333333333</v>
+        <f t="shared" ref="R258:T258" si="50">MEDIAN(R228:R257)</f>
+        <v>172.5</v>
       </c>
       <c r="S258">
-        <f t="shared" ref="S258" si="101">AVERAGE(S228:S257)</f>
-        <v>49.8</v>
+        <f t="shared" si="50"/>
+        <v>50</v>
       </c>
       <c r="T258">
-        <f t="shared" ref="T258" si="102">AVERAGE(T228:T257)</f>
+        <f t="shared" si="50"/>
         <v>122.5</v>
       </c>
       <c r="W258" t="s">
         <v>18</v>
       </c>
       <c r="X258">
-        <f>AVERAGE(X228:X257)</f>
-        <v>168.26666666666668</v>
+        <f>MEDIAN(X228:X257)</f>
+        <v>167.5</v>
       </c>
       <c r="Y258">
-        <f t="shared" ref="Y258" si="103">AVERAGE(Y228:Y257)</f>
-        <v>168.76666666666668</v>
+        <f t="shared" ref="Y258:AA258" si="51">MEDIAN(Y228:Y257)</f>
+        <v>168.5</v>
       </c>
       <c r="Z258">
-        <f t="shared" ref="Z258" si="104">AVERAGE(Z228:Z257)</f>
-        <v>41.766666666666666</v>
+        <f t="shared" si="51"/>
+        <v>41.5</v>
       </c>
       <c r="AA258">
-        <f t="shared" ref="AA258" si="105">AVERAGE(AA228:AA257)</f>
-        <v>114.53333333333333</v>
+        <f t="shared" si="51"/>
+        <v>114.5</v>
       </c>
     </row>
     <row r="259" spans="2:27" x14ac:dyDescent="0.25">
@@ -13403,15 +13088,15 @@
         <v>5.3666666666666663</v>
       </c>
       <c r="D259">
-        <f t="shared" ref="D259:F259" si="106">AVEDEV(D228:D257)</f>
+        <f t="shared" ref="D259:F259" si="52">AVEDEV(D228:D257)</f>
         <v>8.5333333333333332</v>
       </c>
       <c r="E259">
-        <f t="shared" si="106"/>
+        <f t="shared" si="52"/>
         <v>4.1333333333333337</v>
       </c>
       <c r="F259">
-        <f t="shared" si="106"/>
+        <f t="shared" si="52"/>
         <v>4.0888888888888886</v>
       </c>
       <c r="I259" t="s">
@@ -13422,15 +13107,15 @@
         <v>4.9511111111111124</v>
       </c>
       <c r="K259">
-        <f t="shared" ref="K259:M259" si="107">AVEDEV(K228:K257)</f>
+        <f t="shared" ref="K259:M259" si="53">AVEDEV(K228:K257)</f>
         <v>8.2333333333333325</v>
       </c>
       <c r="L259">
-        <f t="shared" si="107"/>
+        <f t="shared" si="53"/>
         <v>4.1733333333333329</v>
       </c>
       <c r="M259">
-        <f t="shared" si="107"/>
+        <f t="shared" si="53"/>
         <v>4.0533333333333328</v>
       </c>
       <c r="P259" t="s">
@@ -13441,15 +13126,15 @@
         <v>5.7155555555555564</v>
       </c>
       <c r="R259">
-        <f t="shared" ref="R259:T259" si="108">AVEDEV(R228:R257)</f>
+        <f t="shared" ref="R259:T259" si="54">AVEDEV(R228:R257)</f>
         <v>5.7422222222222219</v>
       </c>
       <c r="S259">
-        <f t="shared" si="108"/>
+        <f t="shared" si="54"/>
         <v>4.2133333333333338</v>
       </c>
       <c r="T259">
-        <f t="shared" si="108"/>
+        <f t="shared" si="54"/>
         <v>5.9</v>
       </c>
       <c r="W259" t="s">
@@ -13460,15 +13145,15 @@
         <v>5.7022222222222236</v>
       </c>
       <c r="Y259">
-        <f t="shared" ref="Y259:AA259" si="109">AVEDEV(Y228:Y257)</f>
+        <f t="shared" ref="Y259:AA259" si="55">AVEDEV(Y228:Y257)</f>
         <v>5.9</v>
       </c>
       <c r="Z259">
-        <f t="shared" si="109"/>
+        <f t="shared" si="55"/>
         <v>4.2333333333333334</v>
       </c>
       <c r="AA259">
-        <f t="shared" si="109"/>
+        <f t="shared" si="55"/>
         <v>5.8666666666666663</v>
       </c>
     </row>
@@ -15055,77 +14740,77 @@
         <v>18</v>
       </c>
       <c r="C295">
-        <f>AVERAGE(C265:C294)</f>
-        <v>154.23333333333332</v>
+        <f>MEDIAN(C265:C294)</f>
+        <v>155.5</v>
       </c>
       <c r="D295">
-        <f t="shared" ref="D295" si="110">AVERAGE(D265:D294)</f>
-        <v>148.03333333333333</v>
+        <f t="shared" ref="D295:F295" si="56">MEDIAN(D265:D294)</f>
+        <v>146</v>
       </c>
       <c r="E295">
-        <f t="shared" ref="E295" si="111">AVERAGE(E265:E294)</f>
-        <v>58.56666666666667</v>
+        <f t="shared" si="56"/>
+        <v>61.5</v>
       </c>
       <c r="F295">
-        <f t="shared" ref="F295" si="112">AVERAGE(F265:F294)</f>
-        <v>133.56666666666666</v>
+        <f t="shared" si="56"/>
+        <v>134</v>
       </c>
       <c r="I295" t="s">
         <v>18</v>
       </c>
       <c r="J295">
-        <f>AVERAGE(J265:J294)</f>
-        <v>153.93333333333334</v>
+        <f>MEDIAN(J265:J294)</f>
+        <v>155</v>
       </c>
       <c r="K295">
-        <f t="shared" ref="K295" si="113">AVERAGE(K265:K294)</f>
-        <v>147.93333333333334</v>
+        <f t="shared" ref="K295:M295" si="57">MEDIAN(K265:K294)</f>
+        <v>146</v>
       </c>
       <c r="L295">
-        <f t="shared" ref="L295" si="114">AVERAGE(L265:L294)</f>
-        <v>56.633333333333333</v>
+        <f t="shared" si="57"/>
+        <v>59.5</v>
       </c>
       <c r="M295">
-        <f t="shared" ref="M295" si="115">AVERAGE(M265:M294)</f>
-        <v>131.6</v>
+        <f t="shared" si="57"/>
+        <v>132.5</v>
       </c>
       <c r="P295" t="s">
         <v>18</v>
       </c>
       <c r="Q295">
-        <f>AVERAGE(Q265:Q294)</f>
-        <v>160.86666666666667</v>
+        <f>MEDIAN(Q265:Q294)</f>
+        <v>162.5</v>
       </c>
       <c r="R295">
-        <f t="shared" ref="R295" si="116">AVERAGE(R265:R294)</f>
-        <v>158.83333333333334</v>
+        <f t="shared" ref="R295:T295" si="58">MEDIAN(R265:R294)</f>
+        <v>158</v>
       </c>
       <c r="S295">
-        <f t="shared" ref="S295" si="117">AVERAGE(S265:S294)</f>
-        <v>70.266666666666666</v>
+        <f t="shared" si="58"/>
+        <v>70.5</v>
       </c>
       <c r="T295">
-        <f t="shared" ref="T295" si="118">AVERAGE(T265:T294)</f>
-        <v>133.30000000000001</v>
+        <f t="shared" si="58"/>
+        <v>134.5</v>
       </c>
       <c r="W295" t="s">
         <v>18</v>
       </c>
       <c r="X295">
-        <f>AVERAGE(X265:X294)</f>
-        <v>158.16666666666666</v>
+        <f>MEDIAN(X265:X294)</f>
+        <v>159.5</v>
       </c>
       <c r="Y295">
-        <f t="shared" ref="Y295" si="119">AVERAGE(Y265:Y294)</f>
-        <v>156.36666666666667</v>
+        <f t="shared" ref="Y295:AA295" si="59">MEDIAN(Y265:Y294)</f>
+        <v>157</v>
       </c>
       <c r="Z295">
-        <f t="shared" ref="Z295" si="120">AVERAGE(Z265:Z294)</f>
-        <v>62.333333333333336</v>
+        <f t="shared" si="59"/>
+        <v>62.5</v>
       </c>
       <c r="AA295">
-        <f t="shared" ref="AA295" si="121">AVERAGE(AA265:AA294)</f>
-        <v>125.3</v>
+        <f t="shared" si="59"/>
+        <v>126.5</v>
       </c>
     </row>
     <row r="296" spans="2:27" x14ac:dyDescent="0.25">
@@ -15137,15 +14822,15 @@
         <v>6.217777777777779</v>
       </c>
       <c r="D296">
-        <f t="shared" ref="D296:F296" si="122">AVEDEV(D265:D294)</f>
+        <f t="shared" ref="D296:F296" si="60">AVEDEV(D265:D294)</f>
         <v>8.0355555555555558</v>
       </c>
       <c r="E296">
-        <f t="shared" si="122"/>
+        <f t="shared" si="60"/>
         <v>10.795555555555556</v>
       </c>
       <c r="F296">
-        <f t="shared" si="122"/>
+        <f t="shared" si="60"/>
         <v>5.0333333333333332</v>
       </c>
       <c r="I296" t="s">
@@ -15156,15 +14841,15 @@
         <v>6.0755555555555549</v>
       </c>
       <c r="K296">
-        <f t="shared" ref="K296:M296" si="123">AVEDEV(K265:K294)</f>
+        <f t="shared" ref="K296:M296" si="61">AVEDEV(K265:K294)</f>
         <v>7.9288888888888893</v>
       </c>
       <c r="L296">
-        <f t="shared" si="123"/>
+        <f t="shared" si="61"/>
         <v>10.857777777777779</v>
       </c>
       <c r="M296">
-        <f t="shared" si="123"/>
+        <f t="shared" si="61"/>
         <v>5.0266666666666673</v>
       </c>
       <c r="P296" t="s">
@@ -15175,15 +14860,15 @@
         <v>5.5511111111111102</v>
       </c>
       <c r="R296">
-        <f t="shared" ref="R296:T296" si="124">AVEDEV(R265:R294)</f>
+        <f t="shared" ref="R296:T296" si="62">AVEDEV(R265:R294)</f>
         <v>5.2777777777777795</v>
       </c>
       <c r="S296">
-        <f t="shared" si="124"/>
+        <f t="shared" si="62"/>
         <v>10.133333333333333</v>
       </c>
       <c r="T296">
-        <f t="shared" si="124"/>
+        <f t="shared" si="62"/>
         <v>6.9933333333333314</v>
       </c>
       <c r="W296" t="s">
@@ -15194,15 +14879,15 @@
         <v>5.0888888888888895</v>
       </c>
       <c r="Y296">
-        <f t="shared" ref="Y296:AA296" si="125">AVEDEV(Y265:Y294)</f>
+        <f t="shared" ref="Y296:AA296" si="63">AVEDEV(Y265:Y294)</f>
         <v>5.1422222222222214</v>
       </c>
       <c r="Z296">
-        <f t="shared" si="125"/>
+        <f t="shared" si="63"/>
         <v>10.133333333333331</v>
       </c>
       <c r="AA296">
-        <f t="shared" si="125"/>
+        <f t="shared" si="63"/>
         <v>6.9933333333333296</v>
       </c>
     </row>
@@ -16789,77 +16474,77 @@
         <v>18</v>
       </c>
       <c r="C332">
-        <f>AVERAGE(C302:C331)</f>
-        <v>145.33333333333334</v>
+        <f>MEDIAN(C302:C331)</f>
+        <v>146</v>
       </c>
       <c r="D332">
-        <f t="shared" ref="D332" si="126">AVERAGE(D302:D331)</f>
-        <v>127.2</v>
+        <f t="shared" ref="D332:F332" si="64">MEDIAN(D302:D331)</f>
+        <v>127</v>
       </c>
       <c r="E332">
-        <f t="shared" ref="E332" si="127">AVERAGE(E302:E331)</f>
-        <v>102.6</v>
+        <f t="shared" si="64"/>
+        <v>103.5</v>
       </c>
       <c r="F332">
-        <f t="shared" ref="F332" si="128">AVERAGE(F302:F331)</f>
-        <v>118.66666666666667</v>
+        <f t="shared" si="64"/>
+        <v>117</v>
       </c>
       <c r="I332" t="s">
         <v>18</v>
       </c>
       <c r="J332">
-        <f>AVERAGE(J302:J331)</f>
-        <v>145.16666666666666</v>
+        <f>MEDIAN(J302:J331)</f>
+        <v>146</v>
       </c>
       <c r="K332">
-        <f t="shared" ref="K332" si="129">AVERAGE(K302:K331)</f>
-        <v>127.13333333333334</v>
+        <f t="shared" ref="K332:M332" si="65">MEDIAN(K302:K331)</f>
+        <v>127</v>
       </c>
       <c r="L332">
-        <f t="shared" ref="L332" si="130">AVERAGE(L302:L331)</f>
-        <v>102.13333333333334</v>
+        <f t="shared" si="65"/>
+        <v>103</v>
       </c>
       <c r="M332">
-        <f t="shared" ref="M332" si="131">AVERAGE(M302:M331)</f>
-        <v>118.03333333333333</v>
+        <f t="shared" si="65"/>
+        <v>116.5</v>
       </c>
       <c r="P332" t="s">
         <v>18</v>
       </c>
       <c r="Q332">
-        <f>AVERAGE(Q302:Q331)</f>
-        <v>150.30000000000001</v>
+        <f>MEDIAN(Q302:Q331)</f>
+        <v>149.5</v>
       </c>
       <c r="R332">
-        <f t="shared" ref="R332" si="132">AVERAGE(R302:R331)</f>
-        <v>131.56666666666666</v>
+        <f t="shared" ref="R332:T332" si="66">MEDIAN(R302:R331)</f>
+        <v>131.5</v>
       </c>
       <c r="S332">
-        <f t="shared" ref="S332" si="133">AVERAGE(S302:S331)</f>
-        <v>111.33333333333333</v>
+        <f t="shared" si="66"/>
+        <v>109</v>
       </c>
       <c r="T332">
-        <f t="shared" ref="T332" si="134">AVERAGE(T302:T331)</f>
-        <v>114.53333333333333</v>
+        <f t="shared" si="66"/>
+        <v>118</v>
       </c>
       <c r="W332" t="s">
         <v>18</v>
       </c>
       <c r="X332">
-        <f>AVERAGE(X302:X331)</f>
-        <v>149.9</v>
+        <f>MEDIAN(X302:X331)</f>
+        <v>148.5</v>
       </c>
       <c r="Y332">
-        <f t="shared" ref="Y332" si="135">AVERAGE(Y302:Y331)</f>
-        <v>131.56666666666666</v>
+        <f t="shared" ref="Y332:AA332" si="67">MEDIAN(Y302:Y331)</f>
+        <v>131.5</v>
       </c>
       <c r="Z332">
-        <f t="shared" ref="Z332" si="136">AVERAGE(Z302:Z331)</f>
-        <v>109.86666666666666</v>
+        <f t="shared" si="67"/>
+        <v>108.5</v>
       </c>
       <c r="AA332">
-        <f t="shared" ref="AA332" si="137">AVERAGE(AA302:AA331)</f>
-        <v>112.96666666666667</v>
+        <f t="shared" si="67"/>
+        <v>117.5</v>
       </c>
     </row>
     <row r="333" spans="2:27" x14ac:dyDescent="0.25">
@@ -16871,15 +16556,15 @@
         <v>5.5555555555555545</v>
       </c>
       <c r="D333">
-        <f t="shared" ref="D333:F333" si="138">AVEDEV(D302:D331)</f>
+        <f t="shared" ref="D333:F333" si="68">AVEDEV(D302:D331)</f>
         <v>7.0799999999999992</v>
       </c>
       <c r="E333">
-        <f t="shared" si="138"/>
+        <f t="shared" si="68"/>
         <v>5.2133333333333347</v>
       </c>
       <c r="F333">
-        <f t="shared" si="138"/>
+        <f t="shared" si="68"/>
         <v>4.4888888888888916</v>
       </c>
       <c r="I333" t="s">
@@ -16890,15 +16575,15 @@
         <v>5.5555555555555562</v>
       </c>
       <c r="K333">
-        <f t="shared" ref="K333:M333" si="139">AVEDEV(K302:K331)</f>
+        <f t="shared" ref="K333:M333" si="69">AVEDEV(K302:K331)</f>
         <v>7.1422222222222214</v>
       </c>
       <c r="L333">
-        <f t="shared" si="139"/>
+        <f t="shared" si="69"/>
         <v>5.1911111111111099</v>
       </c>
       <c r="M333">
-        <f t="shared" si="139"/>
+        <f t="shared" si="69"/>
         <v>4.5133333333333328</v>
       </c>
       <c r="P333" t="s">
@@ -16909,15 +16594,15 @@
         <v>6.8266666666666689</v>
       </c>
       <c r="R333">
-        <f t="shared" ref="R333:T333" si="140">AVEDEV(R302:R331)</f>
+        <f t="shared" ref="R333:T333" si="70">AVEDEV(R302:R331)</f>
         <v>7.4333333333333336</v>
       </c>
       <c r="S333">
-        <f t="shared" si="140"/>
+        <f t="shared" si="70"/>
         <v>7.5555555555555509</v>
       </c>
       <c r="T333">
-        <f t="shared" si="140"/>
+        <f t="shared" si="70"/>
         <v>15.920000000000019</v>
       </c>
       <c r="W333" t="s">
@@ -16928,15 +16613,15 @@
         <v>6.6266666666666669</v>
       </c>
       <c r="Y333">
-        <f t="shared" ref="Y333:AA333" si="141">AVEDEV(Y302:Y331)</f>
+        <f t="shared" ref="Y333:AA333" si="71">AVEDEV(Y302:Y331)</f>
         <v>7.4333333333333336</v>
       </c>
       <c r="Z333">
-        <f t="shared" si="141"/>
+        <f t="shared" si="71"/>
         <v>6.4488888888888898</v>
       </c>
       <c r="AA333">
-        <f t="shared" si="141"/>
+        <f t="shared" si="71"/>
         <v>16.579999999999981</v>
       </c>
     </row>
@@ -16954,47 +16639,47 @@
     <mergeCell ref="B150:C150"/>
   </mergeCells>
   <conditionalFormatting sqref="C6:F35 J6:M35 Q6:T35 X6:AA35">
-    <cfRule type="expression" dxfId="17" priority="9">
+    <cfRule type="expression" dxfId="8" priority="9">
       <formula>OR(C6&gt;C$36+2*C$37,C6&lt;C$36-2*C$37)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43:F72 J43:M72 Q43:T72 X43:AA72">
-    <cfRule type="expression" dxfId="16" priority="8">
+    <cfRule type="expression" dxfId="7" priority="8">
       <formula>OR(C43&gt;C$73+2*C$74,C43&lt;C$73-2*C$74)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C80:F109 J80:M109 Q80:T109 X80:AA109">
-    <cfRule type="expression" dxfId="15" priority="7">
+    <cfRule type="expression" dxfId="6" priority="7">
       <formula>OR(C80&gt;C$110+2*C$111,C80&lt;C$110-2*C$111)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C117:F146 J117:M146 Q117:T146 X117:AA146">
-    <cfRule type="expression" dxfId="14" priority="6">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>OR(C117&gt;C$147+2*C$148,C117&lt;C$147-2*C$148)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C154:F183 J154:M183 Q154:T183 X154:AA183">
-    <cfRule type="expression" dxfId="13" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>OR(C154&gt;C$184+2*C$185,C154&lt;C$184-2*C$185)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C191:F220 J191:M220 Q191:T220 X191:AA220">
-    <cfRule type="expression" dxfId="12" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>OR(C191&gt;C$221+2*C$222,C191&lt;C$221-2*C$222)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C228:F257 J228:M257 Q228:T257 X228:AA257">
-    <cfRule type="expression" dxfId="11" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>OR(C228&gt;C$258+2*C$259,C228&lt;C$258-2*C$259)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C265:F294 J265:M294 Q265:T294 X265:AA294">
-    <cfRule type="expression" dxfId="10" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>OR(C265&gt;C$295+2*C$296,C265&lt;C$295-2*C$296)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C302:F331 J302:M331 Q302:T331 X302:AA331">
-    <cfRule type="expression" dxfId="9" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>OR(C302&gt;C$332+2*C$333,C302&lt;C$332-2*C$333)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/testes/PC/J5_Log_excel.xlsx
+++ b/testes/PC/J5_Log_excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACEW\Documents\Android\androidconcurrency\testes\PC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B90479FE-C4C4-40B8-A7CB-E6901534E0C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D23AECC-F065-4BDA-AEC4-7ED6A2ADB2DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -83,10 +83,10 @@
     <t>20 producers and 20 consumers</t>
   </si>
   <si>
-    <t>Average</t>
+    <t>Deviation</t>
   </si>
   <si>
-    <t>Deviation</t>
+    <t>Median</t>
   </si>
 </sst>
 </file>
@@ -577,48 +577,48 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Ênfase2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Ênfase3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Ênfase4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Ênfase5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Ênfase6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Bom" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Célula de Verificação" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Célula Vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Ênfase1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Ênfase2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Ênfase3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Ênfase4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Ênfase5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Ênfase6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Neutro" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Nota" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Ruim" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Saída" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texto de Aviso" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Texto Explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Título 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Título 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="9">
     <dxf>
@@ -698,7 +698,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -996,8 +996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N323" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Y341" sqref="Y341"/>
+    <sheetView tabSelected="1" topLeftCell="A323" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B332" sqref="B332"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2599,7 +2599,7 @@
     </row>
     <row r="36" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C36">
         <f>MEDIAN(C6:C35)</f>
@@ -2618,7 +2618,7 @@
         <v>173</v>
       </c>
       <c r="I36" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J36">
         <f>MEDIAN(J6:J35)</f>
@@ -2637,7 +2637,7 @@
         <v>173</v>
       </c>
       <c r="P36" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q36">
         <f>MEDIAN(Q6:Q35)</f>
@@ -2656,7 +2656,7 @@
         <v>178.5</v>
       </c>
       <c r="W36" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="X36">
         <f>MEDIAN(X6:X35)</f>
@@ -2677,7 +2677,7 @@
     </row>
     <row r="37" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C37">
         <f>AVEDEV(C6:C35)</f>
@@ -2696,7 +2696,7 @@
         <v>5.919999999999999</v>
       </c>
       <c r="I37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J37">
         <f>AVEDEV(J6:J35)</f>
@@ -2715,7 +2715,7 @@
         <v>5.9200000000000026</v>
       </c>
       <c r="P37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q37">
         <f>AVEDEV(Q6:Q35)</f>
@@ -2734,7 +2734,7 @@
         <v>4.8622222222222229</v>
       </c>
       <c r="W37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="X37">
         <f>AVEDEV(X6:X35)</f>
@@ -4333,7 +4333,7 @@
     </row>
     <row r="73" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C73">
         <f>MEDIAN(C43:C72)</f>
@@ -4352,7 +4352,7 @@
         <v>158.5</v>
       </c>
       <c r="I73" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J73">
         <f>MEDIAN(J43:J72)</f>
@@ -4371,7 +4371,7 @@
         <v>158.5</v>
       </c>
       <c r="P73" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q73">
         <f>MEDIAN(Q43:Q72)</f>
@@ -4390,7 +4390,7 @@
         <v>157</v>
       </c>
       <c r="W73" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="X73">
         <f>MEDIAN(X43:X72)</f>
@@ -4411,7 +4411,7 @@
     </row>
     <row r="74" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C74">
         <f>AVEDEV(C43:C72)</f>
@@ -4430,7 +4430,7 @@
         <v>3.2933333333333317</v>
       </c>
       <c r="I74" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J74">
         <f>AVEDEV(J43:J72)</f>
@@ -4449,7 +4449,7 @@
         <v>3.2666666666666648</v>
       </c>
       <c r="P74" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q74">
         <f>AVEDEV(Q43:Q72)</f>
@@ -4468,7 +4468,7 @@
         <v>3.693333333333332</v>
       </c>
       <c r="W74" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="X74">
         <f>AVEDEV(X43:X72)</f>
@@ -6067,7 +6067,7 @@
     </row>
     <row r="110" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C110">
         <f>MEDIAN(C80:C109)</f>
@@ -6086,7 +6086,7 @@
         <v>130</v>
       </c>
       <c r="I110" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J110">
         <f>MEDIAN(J80:J109)</f>
@@ -6105,7 +6105,7 @@
         <v>130</v>
       </c>
       <c r="P110" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q110">
         <f>MEDIAN(Q80:Q109)</f>
@@ -6124,7 +6124,7 @@
         <v>132</v>
       </c>
       <c r="W110" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="X110">
         <f>MEDIAN(X80:X109)</f>
@@ -6145,7 +6145,7 @@
     </row>
     <row r="111" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C111">
         <f>AVEDEV(C80:C109)</f>
@@ -6164,7 +6164,7 @@
         <v>5.9466666666666637</v>
       </c>
       <c r="I111" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J111">
         <f>AVEDEV(J80:J109)</f>
@@ -6183,7 +6183,7 @@
         <v>5.9466666666666637</v>
       </c>
       <c r="P111" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q111">
         <f>AVEDEV(Q80:Q109)</f>
@@ -6202,7 +6202,7 @@
         <v>4.1822222222222214</v>
       </c>
       <c r="W111" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="X111">
         <f>AVEDEV(X80:X109)</f>
@@ -7801,7 +7801,7 @@
     </row>
     <row r="147" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C147">
         <f>MEDIAN(C117:C146)</f>
@@ -7820,7 +7820,7 @@
         <v>154</v>
       </c>
       <c r="I147" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J147">
         <f>MEDIAN(J117:J146)</f>
@@ -7839,7 +7839,7 @@
         <v>152</v>
       </c>
       <c r="P147" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q147">
         <f>MEDIAN(Q117:Q146)</f>
@@ -7858,7 +7858,7 @@
         <v>158.5</v>
       </c>
       <c r="W147" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="X147">
         <f>MEDIAN(X117:X146)</f>
@@ -7879,7 +7879,7 @@
     </row>
     <row r="148" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C148">
         <f>AVEDEV(C117:C146)</f>
@@ -7898,7 +7898,7 @@
         <v>7.1599999999999984</v>
       </c>
       <c r="I148" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J148">
         <f>AVEDEV(J117:J146)</f>
@@ -7917,7 +7917,7 @@
         <v>7.0799999999999992</v>
       </c>
       <c r="P148" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q148">
         <f>AVEDEV(Q117:Q146)</f>
@@ -7936,7 +7936,7 @@
         <v>14.840000000000005</v>
       </c>
       <c r="W148" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="X148">
         <f>AVEDEV(X117:X146)</f>
@@ -9535,7 +9535,7 @@
     </row>
     <row r="184" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B184" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C184">
         <f>MEDIAN(C154:C183)</f>
@@ -9554,7 +9554,7 @@
         <v>152</v>
       </c>
       <c r="I184" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J184">
         <f>MEDIAN(J154:J183)</f>
@@ -9573,7 +9573,7 @@
         <v>151</v>
       </c>
       <c r="P184" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q184">
         <f>MEDIAN(Q154:Q183)</f>
@@ -9592,7 +9592,7 @@
         <v>155</v>
       </c>
       <c r="W184" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="X184">
         <f>MEDIAN(X154:X183)</f>
@@ -9613,7 +9613,7 @@
     </row>
     <row r="185" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B185" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C185">
         <f>AVEDEV(C154:C183)</f>
@@ -9632,7 +9632,7 @@
         <v>5.6444444444444439</v>
       </c>
       <c r="I185" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J185">
         <f>AVEDEV(J154:J183)</f>
@@ -9651,7 +9651,7 @@
         <v>5.5377777777777775</v>
       </c>
       <c r="P185" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q185">
         <f>AVEDEV(Q154:Q183)</f>
@@ -9670,7 +9670,7 @@
         <v>7.8955555555555517</v>
       </c>
       <c r="W185" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="X185">
         <f>AVEDEV(X154:X183)</f>
@@ -11269,7 +11269,7 @@
     </row>
     <row r="221" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B221" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C221">
         <f>MEDIAN(C191:C220)</f>
@@ -11288,7 +11288,7 @@
         <v>142</v>
       </c>
       <c r="I221" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J221">
         <f>MEDIAN(J191:J220)</f>
@@ -11307,7 +11307,7 @@
         <v>142</v>
       </c>
       <c r="P221" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q221">
         <f>MEDIAN(Q191:Q220)</f>
@@ -11326,7 +11326,7 @@
         <v>141.5</v>
       </c>
       <c r="W221" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="X221">
         <f>MEDIAN(X191:X220)</f>
@@ -11347,7 +11347,7 @@
     </row>
     <row r="222" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B222" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C222">
         <f>AVEDEV(C191:C220)</f>
@@ -11366,7 +11366,7 @@
         <v>4.8577777777777786</v>
       </c>
       <c r="I222" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J222">
         <f>AVEDEV(J191:J220)</f>
@@ -11385,7 +11385,7 @@
         <v>4.8577777777777786</v>
       </c>
       <c r="P222" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q222">
         <f>AVEDEV(Q191:Q220)</f>
@@ -11404,7 +11404,7 @@
         <v>5.0622222222222222</v>
       </c>
       <c r="W222" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="X222">
         <f>AVEDEV(X191:X220)</f>
@@ -13003,7 +13003,7 @@
     </row>
     <row r="258" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B258" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C258">
         <f>MEDIAN(C228:C257)</f>
@@ -13022,7 +13022,7 @@
         <v>120</v>
       </c>
       <c r="I258" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J258">
         <f>MEDIAN(J228:J257)</f>
@@ -13041,7 +13041,7 @@
         <v>118</v>
       </c>
       <c r="P258" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q258">
         <f>MEDIAN(Q228:Q257)</f>
@@ -13060,7 +13060,7 @@
         <v>122.5</v>
       </c>
       <c r="W258" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="X258">
         <f>MEDIAN(X228:X257)</f>
@@ -13081,7 +13081,7 @@
     </row>
     <row r="259" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B259" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C259">
         <f>AVEDEV(C228:C257)</f>
@@ -13100,7 +13100,7 @@
         <v>4.0888888888888886</v>
       </c>
       <c r="I259" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J259">
         <f>AVEDEV(J228:J257)</f>
@@ -13119,7 +13119,7 @@
         <v>4.0533333333333328</v>
       </c>
       <c r="P259" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q259">
         <f>AVEDEV(Q228:Q257)</f>
@@ -13138,7 +13138,7 @@
         <v>5.9</v>
       </c>
       <c r="W259" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="X259">
         <f>AVEDEV(X228:X257)</f>
@@ -14737,7 +14737,7 @@
     </row>
     <row r="295" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B295" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C295">
         <f>MEDIAN(C265:C294)</f>
@@ -14756,7 +14756,7 @@
         <v>134</v>
       </c>
       <c r="I295" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J295">
         <f>MEDIAN(J265:J294)</f>
@@ -14775,7 +14775,7 @@
         <v>132.5</v>
       </c>
       <c r="P295" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q295">
         <f>MEDIAN(Q265:Q294)</f>
@@ -14794,7 +14794,7 @@
         <v>134.5</v>
       </c>
       <c r="W295" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="X295">
         <f>MEDIAN(X265:X294)</f>
@@ -14815,7 +14815,7 @@
     </row>
     <row r="296" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B296" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C296">
         <f>AVEDEV(C265:C294)</f>
@@ -14834,7 +14834,7 @@
         <v>5.0333333333333332</v>
       </c>
       <c r="I296" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J296">
         <f>AVEDEV(J265:J294)</f>
@@ -14853,7 +14853,7 @@
         <v>5.0266666666666673</v>
       </c>
       <c r="P296" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q296">
         <f>AVEDEV(Q265:Q294)</f>
@@ -14872,7 +14872,7 @@
         <v>6.9933333333333314</v>
       </c>
       <c r="W296" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="X296">
         <f>AVEDEV(X265:X294)</f>
@@ -16471,7 +16471,7 @@
     </row>
     <row r="332" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B332" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C332">
         <f>MEDIAN(C302:C331)</f>
@@ -16490,7 +16490,7 @@
         <v>117</v>
       </c>
       <c r="I332" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J332">
         <f>MEDIAN(J302:J331)</f>
@@ -16509,7 +16509,7 @@
         <v>116.5</v>
       </c>
       <c r="P332" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q332">
         <f>MEDIAN(Q302:Q331)</f>
@@ -16528,7 +16528,7 @@
         <v>118</v>
       </c>
       <c r="W332" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="X332">
         <f>MEDIAN(X302:X331)</f>
@@ -16549,7 +16549,7 @@
     </row>
     <row r="333" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B333" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C333">
         <f>AVEDEV(C302:C331)</f>
@@ -16568,7 +16568,7 @@
         <v>4.4888888888888916</v>
       </c>
       <c r="I333" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J333">
         <f>AVEDEV(J302:J331)</f>
@@ -16587,7 +16587,7 @@
         <v>4.5133333333333328</v>
       </c>
       <c r="P333" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q333">
         <f>AVEDEV(Q302:Q331)</f>
@@ -16606,7 +16606,7 @@
         <v>15.920000000000019</v>
       </c>
       <c r="W333" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="X333">
         <f>AVEDEV(X302:X331)</f>

--- a/testes/PC/J5_Log_excel.xlsx
+++ b/testes/PC/J5_Log_excel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACEW\Documents\Android\androidconcurrency\testes\PC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D23AECC-F065-4BDA-AEC4-7ED6A2ADB2DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{717292F3-D534-4C51-B009-8143CB2F6305}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,6 +20,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="29">
   <si>
     <t>Producers-Consumers problem</t>
   </si>
@@ -87,6 +88,33 @@
   </si>
   <si>
     <t>Median</t>
+  </si>
+  <si>
+    <t>Semáforos</t>
+  </si>
+  <si>
+    <t>Lock e Condition</t>
+  </si>
+  <si>
+    <t>Variáveis atômicas</t>
+  </si>
+  <si>
+    <t>B=2; C=5</t>
+  </si>
+  <si>
+    <t>B=2; C=10</t>
+  </si>
+  <si>
+    <t>B=2; C=20</t>
+  </si>
+  <si>
+    <t>B=8; C=5</t>
+  </si>
+  <si>
+    <t>B=8; C=10</t>
+  </si>
+  <si>
+    <t>B=8; C=20</t>
   </si>
 </sst>
 </file>
@@ -229,7 +257,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -409,6 +437,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -570,11 +604,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -620,7 +655,140 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="28">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -695,6 +863,3960 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Intens</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" baseline="0"/>
+              <a:t> produzidos - Utilizando 5 tarefas produtoras</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>J5_Log_agreggated!$AC$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Semáforos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>J5_Log_agreggated!$AD$5:$AI$5</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>B=2; C=5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B=2; C=10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>B=2; C=20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>B=8; C=5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>B=8; C=10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>B=8; C=20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>J5_Log_agreggated!$AD$6:$AI$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>200.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>198.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>206</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7DA5-4DA0-B433-3F9E4B14C901}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>J5_Log_agreggated!$AC$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Lock e Condition</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>J5_Log_agreggated!$AD$5:$AI$5</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>B=2; C=5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B=2; C=10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>B=2; C=20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>B=8; C=5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>B=8; C=10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>B=8; C=20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>J5_Log_agreggated!$AD$7:$AI$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>189</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7DA5-4DA0-B433-3F9E4B14C901}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>J5_Log_agreggated!$AC$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Synchronized</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>J5_Log_agreggated!$AD$5:$AI$5</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>B=2; C=5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B=2; C=10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>B=2; C=20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>B=8; C=5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>B=8; C=10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>B=8; C=20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>J5_Log_agreggated!$AD$8:$AI$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>158.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>178.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>132</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7DA5-4DA0-B433-3F9E4B14C901}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>J5_Log_agreggated!$AC$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Variáveis atômicas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>J5_Log_agreggated!$AD$5:$AI$5</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>B=2; C=5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B=2; C=10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>B=2; C=20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>B=8; C=5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>B=8; C=10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>B=8; C=20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>J5_Log_agreggated!$AD$9:$AI$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>159.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7DA5-4DA0-B433-3F9E4B14C901}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="407195424"/>
+        <c:axId val="407196408"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="407195424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Cenários</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-BR" baseline="0"/>
+                  <a:t> dos testes</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="407196408"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="407196408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Itens</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-BR" baseline="0"/>
+                  <a:t> produzidos</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="407195424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Intens</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" baseline="0"/>
+              <a:t> produzidos - Utilizando 10 tarefas produtoras</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>J5_Log_agreggated!$AC$121</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Semáforos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>J5_Log_agreggated!$AD$120:$AI$120</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>B=2; C=5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B=2; C=10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>B=2; C=20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>B=8; C=5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>B=8; C=10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>B=8; C=20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>J5_Log_agreggated!$AD$121:$AI$121</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>174.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>174.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>189.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>183.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C048-4C2C-AF79-33CE7B021791}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>J5_Log_agreggated!$AC$122</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Lock e Condition</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>J5_Log_agreggated!$AD$120:$AI$120</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>B=2; C=5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B=2; C=10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>B=2; C=20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>B=8; C=5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>B=8; C=10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>B=8; C=20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>J5_Log_agreggated!$AD$122:$AI$122</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>168.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>185.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>176</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C048-4C2C-AF79-33CE7B021791}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>J5_Log_agreggated!$AC$123</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Synchronized</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>J5_Log_agreggated!$AD$120:$AI$120</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>B=2; C=5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B=2; C=10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>B=2; C=20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>B=8; C=5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>B=8; C=10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>B=8; C=20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>J5_Log_agreggated!$AD$123:$AI$123</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>158.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>141.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C048-4C2C-AF79-33CE7B021791}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>J5_Log_agreggated!$AC$124</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Variáveis atômicas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>J5_Log_agreggated!$AD$120:$AI$120</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>B=2; C=5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B=2; C=10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>B=2; C=20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>B=8; C=5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>B=8; C=10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>B=8; C=20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>J5_Log_agreggated!$AD$124:$AI$124</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>88.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>56</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C048-4C2C-AF79-33CE7B021791}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="407195424"/>
+        <c:axId val="407196408"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="407195424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Cenários</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-BR" baseline="0"/>
+                  <a:t> dos testes</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="407196408"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="407196408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Itens</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-BR" baseline="0"/>
+                  <a:t> produzidos</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="407195424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Intens</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" baseline="0"/>
+              <a:t> produzidos - Utilizando 20 tarefas produtoras</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>J5_Log_agreggated!$AC$230</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Semáforos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>J5_Log_agreggated!$AD$229:$AI$229</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>B=2; C=5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B=2; C=10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>B=2; C=20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>B=8; C=5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>B=8; C=10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>B=8; C=20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>J5_Log_agreggated!$AD$230:$AI$230</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>172.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>155.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>162.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>149.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-552D-4AAB-BE67-2A8928D3243F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>J5_Log_agreggated!$AC$231</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Lock e Condition</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>J5_Log_agreggated!$AD$229:$AI$229</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>B=2; C=5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B=2; C=10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>B=2; C=20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>B=8; C=5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>B=8; C=10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>B=8; C=20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>J5_Log_agreggated!$AD$231:$AI$231</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>172.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>131.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-552D-4AAB-BE67-2A8928D3243F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>J5_Log_agreggated!$AC$232</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Synchronized</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>J5_Log_agreggated!$AD$229:$AI$229</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>B=2; C=5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B=2; C=10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>B=2; C=20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>B=8; C=5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>B=8; C=10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>B=8; C=20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>J5_Log_agreggated!$AD$232:$AI$232</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>122.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>134.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>118</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-552D-4AAB-BE67-2A8928D3243F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>J5_Log_agreggated!$AC$233</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Variáveis atômicas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>J5_Log_agreggated!$AD$229:$AI$229</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>B=2; C=5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B=2; C=10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>B=2; C=20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>B=8; C=5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>B=8; C=10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>B=8; C=20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>J5_Log_agreggated!$AD$233:$AI$233</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>103.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>109</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-552D-4AAB-BE67-2A8928D3243F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="407195424"/>
+        <c:axId val="407196408"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="407195424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Cenários</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-BR" baseline="0"/>
+                  <a:t> dos testes</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="407196408"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="407196408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Itens</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-BR" baseline="0"/>
+                  <a:t> produzidos</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="407195424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>779318</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>169717</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>51954</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>51954</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AE07F18-AC98-4E1F-827C-71DBA71ACF1D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>463261</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>72737</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D09AE4A6-2910-420C-B42B-5454B2868988}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>240</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>463261</xdr:colOff>
+      <xdr:row>256</xdr:row>
+      <xdr:rowOff>72737</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAA052BD-95CA-4E6F-8425-C6AE7C6B38BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -994,15 +5116,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA333"/>
+  <dimension ref="A1:AW333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A323" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B332" sqref="B332"/>
+    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AK21" sqref="AK21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1019,13 +5141,13 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>2</v>
       </c>
@@ -1033,7 +5155,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>4</v>
       </c>
@@ -1047,7 +5169,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>6</v>
       </c>
@@ -1096,8 +5218,26 @@
       <c r="AA5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AD5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>192</v>
       </c>
@@ -1146,8 +5286,29 @@
       <c r="AA6">
         <v>179</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AC6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD6">
+        <v>200.5</v>
+      </c>
+      <c r="AE6">
+        <v>200</v>
+      </c>
+      <c r="AF6">
+        <v>198.5</v>
+      </c>
+      <c r="AG6">
+        <v>210</v>
+      </c>
+      <c r="AH6">
+        <v>208</v>
+      </c>
+      <c r="AI6">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C7">
         <v>202</v>
       </c>
@@ -1196,8 +5357,29 @@
       <c r="AA7">
         <v>178</v>
       </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AC7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD7">
+        <v>197</v>
+      </c>
+      <c r="AE7">
+        <v>195</v>
+      </c>
+      <c r="AF7">
+        <v>188</v>
+      </c>
+      <c r="AG7">
+        <v>204</v>
+      </c>
+      <c r="AH7">
+        <v>200</v>
+      </c>
+      <c r="AI7">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C8">
         <v>199</v>
       </c>
@@ -1246,8 +5428,29 @@
       <c r="AA8">
         <v>173</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AC8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD8">
+        <v>173</v>
+      </c>
+      <c r="AE8">
+        <v>158.5</v>
+      </c>
+      <c r="AF8">
+        <v>130</v>
+      </c>
+      <c r="AG8">
+        <v>178.5</v>
+      </c>
+      <c r="AH8">
+        <v>157</v>
+      </c>
+      <c r="AI8">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C9">
         <v>200</v>
       </c>
@@ -1296,8 +5499,29 @@
       <c r="AA9">
         <v>174</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AC9" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD9">
+        <v>160</v>
+      </c>
+      <c r="AE9">
+        <v>68</v>
+      </c>
+      <c r="AF9">
+        <v>16.5</v>
+      </c>
+      <c r="AG9">
+        <v>159.5</v>
+      </c>
+      <c r="AH9">
+        <v>69</v>
+      </c>
+      <c r="AI9">
+        <v>41.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C10">
         <v>199</v>
       </c>
@@ -1347,7 +5571,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C11">
         <v>202</v>
       </c>
@@ -1397,7 +5621,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C12">
         <v>198</v>
       </c>
@@ -1447,7 +5671,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C13">
         <v>204</v>
       </c>
@@ -1497,7 +5721,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C14">
         <v>201</v>
       </c>
@@ -1547,7 +5771,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C15">
         <v>203</v>
       </c>
@@ -1597,7 +5821,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C16">
         <v>198</v>
       </c>
@@ -5415,7 +9639,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="97" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:49" x14ac:dyDescent="0.25">
       <c r="C97">
         <v>195</v>
       </c>
@@ -5465,7 +9689,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="98" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:49" x14ac:dyDescent="0.25">
       <c r="C98">
         <v>201</v>
       </c>
@@ -5515,7 +9739,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="99" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:49" x14ac:dyDescent="0.25">
       <c r="C99">
         <v>204</v>
       </c>
@@ -5565,7 +9789,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="100" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:49" x14ac:dyDescent="0.25">
       <c r="C100">
         <v>199</v>
       </c>
@@ -5615,7 +9839,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="101" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:49" x14ac:dyDescent="0.25">
       <c r="C101">
         <v>193</v>
       </c>
@@ -5665,7 +9889,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="102" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:49" x14ac:dyDescent="0.25">
       <c r="C102">
         <v>199</v>
       </c>
@@ -5715,7 +9939,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="103" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:49" x14ac:dyDescent="0.25">
       <c r="C103">
         <v>198</v>
       </c>
@@ -5765,7 +9989,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="104" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:49" x14ac:dyDescent="0.25">
       <c r="C104">
         <v>170</v>
       </c>
@@ -5815,7 +10039,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="105" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:49" x14ac:dyDescent="0.25">
       <c r="C105">
         <v>186</v>
       </c>
@@ -5865,7 +10089,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="106" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:49" x14ac:dyDescent="0.25">
       <c r="C106">
         <v>205</v>
       </c>
@@ -5915,7 +10139,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="107" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:49" x14ac:dyDescent="0.25">
       <c r="C107">
         <v>189</v>
       </c>
@@ -5965,7 +10189,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="108" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:49" x14ac:dyDescent="0.25">
       <c r="C108">
         <v>189</v>
       </c>
@@ -6015,7 +10239,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="109" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:49" x14ac:dyDescent="0.25">
       <c r="C109">
         <v>201</v>
       </c>
@@ -6065,7 +10289,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="110" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:49" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
         <v>19</v>
       </c>
@@ -6143,7 +10367,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="111" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:49" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
         <v>18</v>
       </c>
@@ -6221,13 +10445,64 @@
         <v>4.1822222222222214</v>
       </c>
     </row>
-    <row r="113" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A112" s="2"/>
+      <c r="B112" s="2"/>
+      <c r="C112" s="2"/>
+      <c r="D112" s="2"/>
+      <c r="E112" s="2"/>
+      <c r="F112" s="2"/>
+      <c r="G112" s="2"/>
+      <c r="H112" s="2"/>
+      <c r="I112" s="2"/>
+      <c r="J112" s="2"/>
+      <c r="K112" s="2"/>
+      <c r="L112" s="2"/>
+      <c r="M112" s="2"/>
+      <c r="N112" s="2"/>
+      <c r="O112" s="2"/>
+      <c r="P112" s="2"/>
+      <c r="Q112" s="2"/>
+      <c r="R112" s="2"/>
+      <c r="S112" s="2"/>
+      <c r="T112" s="2"/>
+      <c r="U112" s="2"/>
+      <c r="V112" s="2"/>
+      <c r="W112" s="2"/>
+      <c r="X112" s="2"/>
+      <c r="Y112" s="2"/>
+      <c r="Z112" s="2"/>
+      <c r="AA112" s="2"/>
+      <c r="AB112" s="2"/>
+      <c r="AC112" s="2"/>
+      <c r="AD112" s="2"/>
+      <c r="AE112" s="2"/>
+      <c r="AF112" s="2"/>
+      <c r="AG112" s="2"/>
+      <c r="AH112" s="2"/>
+      <c r="AI112" s="2"/>
+      <c r="AJ112" s="2"/>
+      <c r="AK112" s="2"/>
+      <c r="AL112" s="2"/>
+      <c r="AM112" s="2"/>
+      <c r="AN112" s="2"/>
+      <c r="AO112" s="2"/>
+      <c r="AP112" s="2"/>
+      <c r="AQ112" s="2"/>
+      <c r="AR112" s="2"/>
+      <c r="AS112" s="2"/>
+      <c r="AT112" s="2"/>
+      <c r="AU112" s="2"/>
+      <c r="AV112" s="2"/>
+      <c r="AW112" s="2"/>
+    </row>
+    <row r="113" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B113" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C113" s="1"/>
     </row>
-    <row r="114" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:35" x14ac:dyDescent="0.25">
       <c r="C114" t="s">
         <v>2</v>
       </c>
@@ -6235,7 +10510,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:35" x14ac:dyDescent="0.25">
       <c r="C115" t="s">
         <v>4</v>
       </c>
@@ -6249,7 +10524,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="116" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:35" x14ac:dyDescent="0.25">
       <c r="C116" t="s">
         <v>6</v>
       </c>
@@ -6299,7 +10574,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="117" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:35" x14ac:dyDescent="0.25">
       <c r="C117">
         <v>188</v>
       </c>
@@ -6349,7 +10624,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="118" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:35" x14ac:dyDescent="0.25">
       <c r="C118">
         <v>186</v>
       </c>
@@ -6399,7 +10674,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="119" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:35" x14ac:dyDescent="0.25">
       <c r="C119">
         <v>188</v>
       </c>
@@ -6449,7 +10724,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="120" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:35" x14ac:dyDescent="0.25">
       <c r="C120">
         <v>183</v>
       </c>
@@ -6498,8 +10773,26 @@
       <c r="AA120">
         <v>154</v>
       </c>
-    </row>
-    <row r="121" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AD120" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE120" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF120" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG120" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH120" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI120" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="121" spans="2:35" x14ac:dyDescent="0.25">
       <c r="C121">
         <v>180</v>
       </c>
@@ -6548,8 +10841,29 @@
       <c r="AA121">
         <v>154</v>
       </c>
-    </row>
-    <row r="122" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AC121" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD121">
+        <v>184</v>
+      </c>
+      <c r="AE121">
+        <v>174.5</v>
+      </c>
+      <c r="AF121">
+        <v>174.5</v>
+      </c>
+      <c r="AG121">
+        <v>189.5</v>
+      </c>
+      <c r="AH121">
+        <v>189</v>
+      </c>
+      <c r="AI121">
+        <v>183.5</v>
+      </c>
+    </row>
+    <row r="122" spans="2:35" x14ac:dyDescent="0.25">
       <c r="C122">
         <v>153</v>
       </c>
@@ -6598,8 +10912,29 @@
       <c r="AA122">
         <v>141</v>
       </c>
-    </row>
-    <row r="123" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AC122" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD122">
+        <v>183</v>
+      </c>
+      <c r="AE122">
+        <v>180</v>
+      </c>
+      <c r="AF122">
+        <v>168.5</v>
+      </c>
+      <c r="AG122">
+        <v>185.5</v>
+      </c>
+      <c r="AH122">
+        <v>180</v>
+      </c>
+      <c r="AI122">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="123" spans="2:35" x14ac:dyDescent="0.25">
       <c r="C123">
         <v>179</v>
       </c>
@@ -6648,8 +10983,29 @@
       <c r="AA123">
         <v>150</v>
       </c>
-    </row>
-    <row r="124" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AC123" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD123">
+        <v>154</v>
+      </c>
+      <c r="AE123">
+        <v>152</v>
+      </c>
+      <c r="AF123">
+        <v>142</v>
+      </c>
+      <c r="AG123">
+        <v>158.5</v>
+      </c>
+      <c r="AH123">
+        <v>155</v>
+      </c>
+      <c r="AI123">
+        <v>141.5</v>
+      </c>
+    </row>
+    <row r="124" spans="2:35" x14ac:dyDescent="0.25">
       <c r="C124">
         <v>167</v>
       </c>
@@ -6698,8 +11054,29 @@
       <c r="AA124">
         <v>160</v>
       </c>
-    </row>
-    <row r="125" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AC124" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD124">
+        <v>88.5</v>
+      </c>
+      <c r="AE124">
+        <v>128.5</v>
+      </c>
+      <c r="AF124">
+        <v>53</v>
+      </c>
+      <c r="AG124">
+        <v>94</v>
+      </c>
+      <c r="AH124">
+        <v>128.5</v>
+      </c>
+      <c r="AI124">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="125" spans="2:35" x14ac:dyDescent="0.25">
       <c r="C125">
         <v>176</v>
       </c>
@@ -6749,7 +11126,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="126" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:35" x14ac:dyDescent="0.25">
       <c r="C126">
         <v>176</v>
       </c>
@@ -6799,7 +11176,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="127" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:35" x14ac:dyDescent="0.25">
       <c r="C127">
         <v>193</v>
       </c>
@@ -6849,7 +11226,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="128" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:35" x14ac:dyDescent="0.25">
       <c r="C128">
         <v>181</v>
       </c>
@@ -10667,7 +15044,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="209" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:49" x14ac:dyDescent="0.25">
       <c r="C209">
         <v>180</v>
       </c>
@@ -10717,7 +15094,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="210" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:49" x14ac:dyDescent="0.25">
       <c r="C210">
         <v>174</v>
       </c>
@@ -10767,7 +15144,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="211" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:49" x14ac:dyDescent="0.25">
       <c r="C211">
         <v>178</v>
       </c>
@@ -10817,7 +15194,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="212" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:49" x14ac:dyDescent="0.25">
       <c r="C212">
         <v>162</v>
       </c>
@@ -10867,7 +15244,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="213" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:49" x14ac:dyDescent="0.25">
       <c r="C213">
         <v>171</v>
       </c>
@@ -10917,7 +15294,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="214" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:49" x14ac:dyDescent="0.25">
       <c r="C214">
         <v>168</v>
       </c>
@@ -10967,7 +15344,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="215" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:49" x14ac:dyDescent="0.25">
       <c r="C215">
         <v>178</v>
       </c>
@@ -11017,7 +15394,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="216" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:49" x14ac:dyDescent="0.25">
       <c r="C216">
         <v>177</v>
       </c>
@@ -11067,7 +15444,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="217" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:49" x14ac:dyDescent="0.25">
       <c r="C217">
         <v>165</v>
       </c>
@@ -11117,7 +15494,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="218" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:49" x14ac:dyDescent="0.25">
       <c r="C218">
         <v>172</v>
       </c>
@@ -11167,7 +15544,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="219" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:49" x14ac:dyDescent="0.25">
       <c r="C219">
         <v>177</v>
       </c>
@@ -11217,7 +15594,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="220" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:49" x14ac:dyDescent="0.25">
       <c r="C220">
         <v>169</v>
       </c>
@@ -11267,7 +15644,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="221" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:49" x14ac:dyDescent="0.25">
       <c r="B221" t="s">
         <v>19</v>
       </c>
@@ -11345,7 +15722,7 @@
         <v>141.5</v>
       </c>
     </row>
-    <row r="222" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:49" x14ac:dyDescent="0.25">
       <c r="B222" t="s">
         <v>18</v>
       </c>
@@ -11423,13 +15800,64 @@
         <v>5.0622222222222222</v>
       </c>
     </row>
-    <row r="224" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A223" s="2"/>
+      <c r="B223" s="2"/>
+      <c r="C223" s="2"/>
+      <c r="D223" s="2"/>
+      <c r="E223" s="2"/>
+      <c r="F223" s="2"/>
+      <c r="G223" s="2"/>
+      <c r="H223" s="2"/>
+      <c r="I223" s="2"/>
+      <c r="J223" s="2"/>
+      <c r="K223" s="2"/>
+      <c r="L223" s="2"/>
+      <c r="M223" s="2"/>
+      <c r="N223" s="2"/>
+      <c r="O223" s="2"/>
+      <c r="P223" s="2"/>
+      <c r="Q223" s="2"/>
+      <c r="R223" s="2"/>
+      <c r="S223" s="2"/>
+      <c r="T223" s="2"/>
+      <c r="U223" s="2"/>
+      <c r="V223" s="2"/>
+      <c r="W223" s="2"/>
+      <c r="X223" s="2"/>
+      <c r="Y223" s="2"/>
+      <c r="Z223" s="2"/>
+      <c r="AA223" s="2"/>
+      <c r="AB223" s="2"/>
+      <c r="AC223" s="2"/>
+      <c r="AD223" s="2"/>
+      <c r="AE223" s="2"/>
+      <c r="AF223" s="2"/>
+      <c r="AG223" s="2"/>
+      <c r="AH223" s="2"/>
+      <c r="AI223" s="2"/>
+      <c r="AJ223" s="2"/>
+      <c r="AK223" s="2"/>
+      <c r="AL223" s="2"/>
+      <c r="AM223" s="2"/>
+      <c r="AN223" s="2"/>
+      <c r="AO223" s="2"/>
+      <c r="AP223" s="2"/>
+      <c r="AQ223" s="2"/>
+      <c r="AR223" s="2"/>
+      <c r="AS223" s="2"/>
+      <c r="AT223" s="2"/>
+      <c r="AU223" s="2"/>
+      <c r="AV223" s="2"/>
+      <c r="AW223" s="2"/>
+    </row>
+    <row r="224" spans="1:49" x14ac:dyDescent="0.25">
       <c r="B224" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C224" s="1"/>
     </row>
-    <row r="225" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="225" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C225" t="s">
         <v>2</v>
       </c>
@@ -11437,7 +15865,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="226" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="226" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C226" t="s">
         <v>4</v>
       </c>
@@ -11451,7 +15879,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="227" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="227" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C227" t="s">
         <v>6</v>
       </c>
@@ -11501,7 +15929,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="228" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="228" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C228">
         <v>170</v>
       </c>
@@ -11551,7 +15979,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="229" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="229" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C229">
         <v>173</v>
       </c>
@@ -11600,8 +16028,26 @@
       <c r="AA229">
         <v>108</v>
       </c>
-    </row>
-    <row r="230" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="AD229" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE229" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF229" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG229" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH229" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI229" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="230" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C230">
         <v>180</v>
       </c>
@@ -11650,8 +16096,29 @@
       <c r="AA230">
         <v>112</v>
       </c>
-    </row>
-    <row r="231" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="AC230" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD230">
+        <v>172.5</v>
+      </c>
+      <c r="AE230">
+        <v>155.5</v>
+      </c>
+      <c r="AF230">
+        <v>146</v>
+      </c>
+      <c r="AG230">
+        <v>172</v>
+      </c>
+      <c r="AH230">
+        <v>162.5</v>
+      </c>
+      <c r="AI230">
+        <v>149.5</v>
+      </c>
+    </row>
+    <row r="231" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C231">
         <v>177</v>
       </c>
@@ -11700,8 +16167,29 @@
       <c r="AA231">
         <v>115</v>
       </c>
-    </row>
-    <row r="232" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="AC231" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD231">
+        <v>168</v>
+      </c>
+      <c r="AE231">
+        <v>146</v>
+      </c>
+      <c r="AF231">
+        <v>127</v>
+      </c>
+      <c r="AG231">
+        <v>172.5</v>
+      </c>
+      <c r="AH231">
+        <v>158</v>
+      </c>
+      <c r="AI231">
+        <v>131.5</v>
+      </c>
+    </row>
+    <row r="232" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C232">
         <v>180</v>
       </c>
@@ -11750,8 +16238,29 @@
       <c r="AA232">
         <v>120</v>
       </c>
-    </row>
-    <row r="233" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="AC232" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD232">
+        <v>120</v>
+      </c>
+      <c r="AE232">
+        <v>134</v>
+      </c>
+      <c r="AF232">
+        <v>117</v>
+      </c>
+      <c r="AG232">
+        <v>122.5</v>
+      </c>
+      <c r="AH232">
+        <v>134.5</v>
+      </c>
+      <c r="AI232">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="233" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C233">
         <v>182</v>
       </c>
@@ -11800,8 +16309,29 @@
       <c r="AA233">
         <v>108</v>
       </c>
-    </row>
-    <row r="234" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="AC233" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD233">
+        <v>46</v>
+      </c>
+      <c r="AE233">
+        <v>61.5</v>
+      </c>
+      <c r="AF233">
+        <v>103.5</v>
+      </c>
+      <c r="AG233">
+        <v>50</v>
+      </c>
+      <c r="AH233">
+        <v>70.5</v>
+      </c>
+      <c r="AI233">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="234" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C234">
         <v>171</v>
       </c>
@@ -11851,7 +16381,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="235" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="235" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C235">
         <v>180</v>
       </c>
@@ -11901,7 +16431,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="236" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="236" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C236">
         <v>171</v>
       </c>
@@ -11951,7 +16481,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="237" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="237" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C237">
         <v>171</v>
       </c>
@@ -12001,7 +16531,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="238" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="238" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C238">
         <v>168</v>
       </c>
@@ -12051,7 +16581,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="239" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="239" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C239">
         <v>164</v>
       </c>
@@ -12101,7 +16631,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="240" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="240" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C240">
         <v>178</v>
       </c>
@@ -16638,52 +21168,148 @@
     <mergeCell ref="B113:C113"/>
     <mergeCell ref="B150:C150"/>
   </mergeCells>
-  <conditionalFormatting sqref="C6:F35 J6:M35 Q6:T35 X6:AA35">
-    <cfRule type="expression" dxfId="8" priority="9">
+  <conditionalFormatting sqref="C6:F35 J6:M35 Q6:T35 X6:AA35 AD6:AF7 AH6:AI7">
+    <cfRule type="expression" dxfId="27" priority="28">
       <formula>OR(C6&gt;C$36+2*C$37,C6&lt;C$36-2*C$37)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43:F72 J43:M72 Q43:T72 X43:AA72">
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="26" priority="27">
       <formula>OR(C43&gt;C$73+2*C$74,C43&lt;C$73-2*C$74)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C80:F109 J80:M109 Q80:T109 X80:AA109">
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="25" priority="26">
       <formula>OR(C80&gt;C$110+2*C$111,C80&lt;C$110-2*C$111)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C117:F146 J117:M146 Q117:T146 X117:AA146">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="24" priority="25">
       <formula>OR(C117&gt;C$147+2*C$148,C117&lt;C$147-2*C$148)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C154:F183 J154:M183 Q154:T183 X154:AA183">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="23" priority="24">
       <formula>OR(C154&gt;C$184+2*C$185,C154&lt;C$184-2*C$185)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C191:F220 J191:M220 Q191:T220 X191:AA220">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="22" priority="23">
       <formula>OR(C191&gt;C$221+2*C$222,C191&lt;C$221-2*C$222)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C228:F257 J228:M257 Q228:T257 X228:AA257">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="21" priority="22">
       <formula>OR(C228&gt;C$258+2*C$259,C228&lt;C$258-2*C$259)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C265:F294 J265:M294 Q265:T294 X265:AA294">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="20" priority="21">
       <formula>OR(C265&gt;C$295+2*C$296,C265&lt;C$295-2*C$296)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C302:F331 J302:M331 Q302:T331 X302:AA331">
+    <cfRule type="expression" dxfId="19" priority="20">
+      <formula>OR(C302&gt;C$332+2*C$333,C302&lt;C$332-2*C$333)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG6:AG7">
+    <cfRule type="expression" dxfId="18" priority="19">
+      <formula>OR(AG6&gt;AG$36+2*AG$37,AG6&lt;AG$36-2*AG$37)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD10:AF10 AH10:AI10">
+    <cfRule type="expression" dxfId="17" priority="18">
+      <formula>OR(AD10&gt;AD$36+2*AD$37,AD10&lt;AD$36-2*AD$37)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG10">
+    <cfRule type="expression" dxfId="16" priority="17">
+      <formula>OR(AG10&gt;AG$36+2*AG$37,AG10&lt;AG$36-2*AG$37)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH8:AI8 AD8:AF8">
+    <cfRule type="expression" dxfId="15" priority="16">
+      <formula>OR(AD8&gt;AD$36+2*AD$37,AD8&lt;AD$36-2*AD$37)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG8">
+    <cfRule type="expression" dxfId="14" priority="15">
+      <formula>OR(AG8&gt;AG$36+2*AG$37,AG8&lt;AG$36-2*AG$37)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD9:AF9 AH9:AI9">
+    <cfRule type="expression" dxfId="13" priority="14">
+      <formula>OR(AD9&gt;AD$36+2*AD$37,AD9&lt;AD$36-2*AD$37)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG9">
+    <cfRule type="expression" dxfId="12" priority="13">
+      <formula>OR(AG9&gt;AG$36+2*AG$37,AG9&lt;AG$36-2*AG$37)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD121:AF122 AH121:AI122">
+    <cfRule type="expression" dxfId="11" priority="12">
+      <formula>OR(AD121&gt;AD$36+2*AD$37,AD121&lt;AD$36-2*AD$37)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG121:AG122">
+    <cfRule type="expression" dxfId="10" priority="11">
+      <formula>OR(AG121&gt;AG$36+2*AG$37,AG121&lt;AG$36-2*AG$37)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH123:AI123 AD123:AF123">
+    <cfRule type="expression" dxfId="9" priority="10">
+      <formula>OR(AD123&gt;AD$36+2*AD$37,AD123&lt;AD$36-2*AD$37)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG123">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>OR(AG123&gt;AG$36+2*AG$37,AG123&lt;AG$36-2*AG$37)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD124:AF124 AH124:AI124">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>OR(AD124&gt;AD$36+2*AD$37,AD124&lt;AD$36-2*AD$37)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG124">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>OR(AG124&gt;AG$36+2*AG$37,AG124&lt;AG$36-2*AG$37)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD230:AF231 AH230:AI231">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>OR(AD230&gt;AD$36+2*AD$37,AD230&lt;AD$36-2*AD$37)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG230:AG231">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>OR(AG230&gt;AG$36+2*AG$37,AG230&lt;AG$36-2*AG$37)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH232:AI232 AD232:AF232">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>OR(AD232&gt;AD$36+2*AD$37,AD232&lt;AD$36-2*AD$37)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG232">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>OR(AG232&gt;AG$36+2*AG$37,AG232&lt;AG$36-2*AG$37)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD233:AF233 AH233:AI233">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>OR(AD233&gt;AD$36+2*AD$37,AD233&lt;AD$36-2*AD$37)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG233">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>OR(C302&gt;C$332+2*C$333,C302&lt;C$332-2*C$333)</formula>
+      <formula>OR(AG233&gt;AG$36+2*AG$37,AG233&lt;AG$36-2*AG$37)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/testes/PC/J5_Log_excel.xlsx
+++ b/testes/PC/J5_Log_excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACEW\Documents\Android\androidconcurrency\testes\PC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{717292F3-D534-4C51-B009-8143CB2F6305}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEFB3771-6F80-4429-9321-0A5180693BB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12630" yWindow="2835" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="J5_Log_agreggated" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="31">
   <si>
     <t>Producers-Consumers problem</t>
   </si>
@@ -116,12 +116,18 @@
   <si>
     <t>B=8; C=20</t>
   </si>
+  <si>
+    <t>t-Test: Two-Sample Assuming Unequal Variances</t>
+  </si>
+  <si>
+    <t>Dummy</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,6 +258,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -444,7 +458,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -559,6 +573,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -604,12 +638,21 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -5118,36 +5161,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AW333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AK21" sqref="AK21"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>2</v>
       </c>
@@ -5155,7 +5198,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>4</v>
       </c>
@@ -5169,7 +5212,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>6</v>
       </c>
@@ -5236,8 +5279,11 @@
       <c r="AI5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AK5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>192</v>
       </c>
@@ -5307,8 +5353,11 @@
       <c r="AI6">
         <v>206</v>
       </c>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AK6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="C7">
         <v>202</v>
       </c>
@@ -5378,8 +5427,11 @@
       <c r="AI7">
         <v>189</v>
       </c>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AK7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
       <c r="C8">
         <v>199</v>
       </c>
@@ -5450,7 +5502,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
       <c r="C9">
         <v>200</v>
       </c>
@@ -5520,8 +5572,12 @@
       <c r="AI9">
         <v>41.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AL9" s="6"/>
+      <c r="AM9" s="6"/>
+      <c r="AN9" s="6"/>
+      <c r="AO9" s="6"/>
+    </row>
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
       <c r="C10">
         <v>199</v>
       </c>
@@ -5546,6 +5602,10 @@
       <c r="M10">
         <v>172</v>
       </c>
+      <c r="O10">
+        <f>_xlfn.T.TEST(Q6:Q35, R6:R35,2,3)</f>
+        <v>2.0396771501255268E-2</v>
+      </c>
       <c r="Q10">
         <v>216</v>
       </c>
@@ -5570,8 +5630,12 @@
       <c r="AA10">
         <v>180</v>
       </c>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AL10" s="7"/>
+      <c r="AM10" s="7"/>
+      <c r="AN10" s="7"/>
+      <c r="AO10" s="6"/>
+    </row>
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
       <c r="C11">
         <v>202</v>
       </c>
@@ -5620,8 +5684,12 @@
       <c r="AA11">
         <v>183</v>
       </c>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AL11" s="3"/>
+      <c r="AM11" s="3"/>
+      <c r="AN11" s="3"/>
+      <c r="AO11" s="6"/>
+    </row>
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
       <c r="C12">
         <v>198</v>
       </c>
@@ -5670,8 +5738,12 @@
       <c r="AA12">
         <v>185</v>
       </c>
-    </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AL12" s="3"/>
+      <c r="AM12" s="3"/>
+      <c r="AN12" s="3"/>
+      <c r="AO12" s="6"/>
+    </row>
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
       <c r="C13">
         <v>204</v>
       </c>
@@ -5720,8 +5792,12 @@
       <c r="AA13">
         <v>182</v>
       </c>
-    </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AL13" s="3"/>
+      <c r="AM13" s="3"/>
+      <c r="AN13" s="3"/>
+      <c r="AO13" s="6"/>
+    </row>
+    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
       <c r="C14">
         <v>201</v>
       </c>
@@ -5770,8 +5846,12 @@
       <c r="AA14">
         <v>171</v>
       </c>
-    </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AL14" s="3"/>
+      <c r="AM14" s="3"/>
+      <c r="AN14" s="3"/>
+      <c r="AO14" s="6"/>
+    </row>
+    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
       <c r="C15">
         <v>203</v>
       </c>
@@ -5820,8 +5900,12 @@
       <c r="AA15">
         <v>170</v>
       </c>
-    </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AL15" s="3"/>
+      <c r="AM15" s="3"/>
+      <c r="AN15" s="3"/>
+      <c r="AO15" s="6"/>
+    </row>
+    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
       <c r="C16">
         <v>198</v>
       </c>
@@ -5870,8 +5954,12 @@
       <c r="AA16">
         <v>180</v>
       </c>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="AL16" s="3"/>
+      <c r="AM16" s="3"/>
+      <c r="AN16" s="3"/>
+      <c r="AO16" s="6"/>
+    </row>
+    <row r="17" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C17">
         <v>208</v>
       </c>
@@ -5920,8 +6008,9 @@
       <c r="AA17">
         <v>181</v>
       </c>
-    </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="AO17" s="6"/>
+    </row>
+    <row r="18" spans="3:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18">
         <v>205</v>
       </c>
@@ -5970,8 +6059,9 @@
       <c r="AA18">
         <v>185</v>
       </c>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="AO18" s="6"/>
+    </row>
+    <row r="19" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C19">
         <v>205</v>
       </c>
@@ -6020,8 +6110,12 @@
       <c r="AA19">
         <v>176</v>
       </c>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="AL19" s="5"/>
+      <c r="AM19" s="5"/>
+      <c r="AN19" s="5"/>
+      <c r="AO19" s="6"/>
+    </row>
+    <row r="20" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C20">
         <v>205</v>
       </c>
@@ -6070,8 +6164,12 @@
       <c r="AA20">
         <v>176</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="AL20" s="3"/>
+      <c r="AM20" s="3"/>
+      <c r="AN20" s="3"/>
+      <c r="AO20" s="6"/>
+    </row>
+    <row r="21" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C21">
         <v>204</v>
       </c>
@@ -6120,8 +6218,12 @@
       <c r="AA21">
         <v>181</v>
       </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="AL21" s="3"/>
+      <c r="AM21" s="3"/>
+      <c r="AN21" s="3"/>
+      <c r="AO21" s="6"/>
+    </row>
+    <row r="22" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C22">
         <v>164</v>
       </c>
@@ -6170,8 +6272,12 @@
       <c r="AA22">
         <v>166</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="AL22" s="3"/>
+      <c r="AM22" s="3"/>
+      <c r="AN22" s="3"/>
+      <c r="AO22" s="6"/>
+    </row>
+    <row r="23" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C23">
         <v>151</v>
       </c>
@@ -6220,8 +6326,12 @@
       <c r="AA23">
         <v>163</v>
       </c>
-    </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="AL23" s="3"/>
+      <c r="AM23" s="3"/>
+      <c r="AN23" s="3"/>
+      <c r="AO23" s="6"/>
+    </row>
+    <row r="24" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C24">
         <v>186</v>
       </c>
@@ -6270,8 +6380,12 @@
       <c r="AA24">
         <v>188</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="AL24" s="3"/>
+      <c r="AM24" s="3"/>
+      <c r="AN24" s="3"/>
+      <c r="AO24" s="6"/>
+    </row>
+    <row r="25" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C25">
         <v>186</v>
       </c>
@@ -6320,8 +6434,12 @@
       <c r="AA25">
         <v>180</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="AL25" s="3"/>
+      <c r="AM25" s="3"/>
+      <c r="AN25" s="3"/>
+      <c r="AO25" s="6"/>
+    </row>
+    <row r="26" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C26">
         <v>200</v>
       </c>
@@ -6370,8 +6488,12 @@
       <c r="AA26">
         <v>168</v>
       </c>
-    </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="AL26" s="3"/>
+      <c r="AM26" s="3"/>
+      <c r="AN26" s="3"/>
+      <c r="AO26" s="6"/>
+    </row>
+    <row r="27" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C27">
         <v>197</v>
       </c>
@@ -6420,8 +6542,12 @@
       <c r="AA27">
         <v>169</v>
       </c>
-    </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="AL27" s="3"/>
+      <c r="AM27" s="3"/>
+      <c r="AN27" s="3"/>
+      <c r="AO27" s="6"/>
+    </row>
+    <row r="28" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C28">
         <v>198</v>
       </c>
@@ -6470,8 +6596,15 @@
       <c r="AA28">
         <v>177</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="AL28" s="3"/>
+      <c r="AM28" s="3"/>
+      <c r="AN28" s="3"/>
+      <c r="AO28" s="6"/>
+      <c r="AQ28" s="6"/>
+      <c r="AR28" s="6"/>
+      <c r="AS28" s="6"/>
+    </row>
+    <row r="29" spans="3:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C29">
         <v>208</v>
       </c>
@@ -6520,8 +6653,15 @@
       <c r="AA29">
         <v>177</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="AL29" s="4"/>
+      <c r="AM29" s="4"/>
+      <c r="AN29" s="4"/>
+      <c r="AO29" s="6"/>
+      <c r="AQ29" s="6"/>
+      <c r="AR29" s="6"/>
+      <c r="AS29" s="6"/>
+    </row>
+    <row r="30" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C30">
         <v>202</v>
       </c>
@@ -6570,8 +6710,15 @@
       <c r="AA30">
         <v>181</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="AL30" s="6"/>
+      <c r="AM30" s="7"/>
+      <c r="AN30" s="7"/>
+      <c r="AO30" s="7"/>
+      <c r="AQ30" s="7"/>
+      <c r="AR30" s="7"/>
+      <c r="AS30" s="7"/>
+    </row>
+    <row r="31" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C31">
         <v>195</v>
       </c>
@@ -6620,8 +6767,15 @@
       <c r="AA31">
         <v>175</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="AL31" s="6"/>
+      <c r="AM31" s="3"/>
+      <c r="AN31" s="3"/>
+      <c r="AO31" s="3"/>
+      <c r="AQ31" s="3"/>
+      <c r="AR31" s="3"/>
+      <c r="AS31" s="3"/>
+    </row>
+    <row r="32" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C32">
         <v>206</v>
       </c>
@@ -6670,8 +6824,15 @@
       <c r="AA32">
         <v>176</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AL32" s="6"/>
+      <c r="AM32" s="3"/>
+      <c r="AN32" s="3"/>
+      <c r="AO32" s="3"/>
+      <c r="AQ32" s="3"/>
+      <c r="AR32" s="3"/>
+      <c r="AS32" s="3"/>
+    </row>
+    <row r="33" spans="2:45" x14ac:dyDescent="0.25">
       <c r="C33">
         <v>194</v>
       </c>
@@ -6720,8 +6881,15 @@
       <c r="AA33">
         <v>185</v>
       </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AL33" s="6"/>
+      <c r="AM33" s="3"/>
+      <c r="AN33" s="3"/>
+      <c r="AO33" s="3"/>
+      <c r="AQ33" s="3"/>
+      <c r="AR33" s="3"/>
+      <c r="AS33" s="3"/>
+    </row>
+    <row r="34" spans="2:45" x14ac:dyDescent="0.25">
       <c r="C34">
         <v>202</v>
       </c>
@@ -6770,8 +6938,15 @@
       <c r="AA34">
         <v>170</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AL34" s="6"/>
+      <c r="AM34" s="3"/>
+      <c r="AN34" s="3"/>
+      <c r="AO34" s="3"/>
+      <c r="AQ34" s="3"/>
+      <c r="AR34" s="3"/>
+      <c r="AS34" s="3"/>
+    </row>
+    <row r="35" spans="2:45" x14ac:dyDescent="0.25">
       <c r="C35">
         <v>205</v>
       </c>
@@ -6820,8 +6995,19 @@
       <c r="AA35">
         <v>178</v>
       </c>
-    </row>
-    <row r="36" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AK35">
+        <f>_xlfn.T.TEST(C80:C109, D80:D109,2,3)</f>
+        <v>5.9166129375394758E-5</v>
+      </c>
+      <c r="AL35" s="6"/>
+      <c r="AM35" s="3"/>
+      <c r="AN35" s="3"/>
+      <c r="AO35" s="3"/>
+      <c r="AQ35" s="3"/>
+      <c r="AR35" s="3"/>
+      <c r="AS35" s="3"/>
+    </row>
+    <row r="36" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>19</v>
       </c>
@@ -6898,8 +7084,18 @@
         <f t="shared" si="3"/>
         <v>177.5</v>
       </c>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AL36" s="6"/>
+      <c r="AM36" s="3" t="e">
+        <f>AL17:AN29</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AN36" s="3"/>
+      <c r="AO36" s="3"/>
+      <c r="AQ36" s="3"/>
+      <c r="AR36" s="3"/>
+      <c r="AS36" s="3"/>
+    </row>
+    <row r="37" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>18</v>
       </c>
@@ -6976,22 +7172,58 @@
         <f t="shared" si="7"/>
         <v>4.8466666666666658</v>
       </c>
-    </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B39" s="1" t="s">
+      <c r="AE37">
+        <v>199.8</v>
+      </c>
+      <c r="AL37" s="6"/>
+      <c r="AM37" s="3"/>
+      <c r="AN37" s="3"/>
+      <c r="AO37" s="3"/>
+      <c r="AQ37" s="3"/>
+      <c r="AR37" s="3"/>
+      <c r="AS37" s="3"/>
+    </row>
+    <row r="38" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="AE38">
+        <v>203.8</v>
+      </c>
+      <c r="AL38" s="6"/>
+      <c r="AM38" s="3"/>
+      <c r="AN38" s="3"/>
+      <c r="AO38" s="3"/>
+      <c r="AQ38" s="3"/>
+      <c r="AR38" s="3"/>
+      <c r="AS38" s="3"/>
+    </row>
+    <row r="39" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B39" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C39" s="1"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="C39" s="2"/>
+      <c r="AL39" s="6"/>
+      <c r="AM39" s="3"/>
+      <c r="AN39" s="3"/>
+      <c r="AO39" s="3"/>
+      <c r="AQ39" s="3"/>
+      <c r="AR39" s="3"/>
+      <c r="AS39" s="3"/>
+    </row>
+    <row r="40" spans="2:45" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>2</v>
       </c>
       <c r="Q40" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AL40" s="6"/>
+      <c r="AM40" s="3"/>
+      <c r="AN40" s="3"/>
+      <c r="AO40" s="3"/>
+      <c r="AQ40" s="3"/>
+      <c r="AR40" s="3"/>
+      <c r="AS40" s="3"/>
+    </row>
+    <row r="41" spans="2:45" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>4</v>
       </c>
@@ -7005,7 +7237,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:45" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>6</v>
       </c>
@@ -7055,7 +7287,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:45" x14ac:dyDescent="0.25">
       <c r="C43">
         <v>184</v>
       </c>
@@ -7105,7 +7337,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:45" x14ac:dyDescent="0.25">
       <c r="C44">
         <v>207</v>
       </c>
@@ -7155,7 +7387,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:45" x14ac:dyDescent="0.25">
       <c r="C45">
         <v>204</v>
       </c>
@@ -7204,8 +7436,12 @@
       <c r="AA45">
         <v>154</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AG45">
+        <f>_xlfn.T.TEST(C80:C109, D80:D109,2,3)</f>
+        <v>5.9166129375394758E-5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:45" x14ac:dyDescent="0.25">
       <c r="C46">
         <v>168</v>
       </c>
@@ -7230,6 +7466,10 @@
       <c r="M46">
         <v>159</v>
       </c>
+      <c r="O46">
+        <f>_xlfn.T.TEST(Q43:Q72, R43:R72,2,3)</f>
+        <v>7.1295111506821928E-6</v>
+      </c>
       <c r="Q46">
         <v>212</v>
       </c>
@@ -7255,7 +7495,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:45" x14ac:dyDescent="0.25">
       <c r="C47">
         <v>117</v>
       </c>
@@ -7305,7 +7545,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:45" x14ac:dyDescent="0.25">
       <c r="C48">
         <v>161</v>
       </c>
@@ -8712,10 +8952,10 @@
       </c>
     </row>
     <row r="76" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B76" s="1" t="s">
+      <c r="B76" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C76" s="1"/>
+      <c r="C76" s="2"/>
     </row>
     <row r="77" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
@@ -8914,6 +9154,10 @@
       <c r="M82">
         <v>133</v>
       </c>
+      <c r="O82">
+        <f>_xlfn.T.TEST(Q80:Q109, R80:R109,2,3)</f>
+        <v>1.2853088679389723E-7</v>
+      </c>
       <c r="Q82">
         <v>207</v>
       </c>
@@ -10446,63 +10690,63 @@
       </c>
     </row>
     <row r="112" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A112" s="2"/>
-      <c r="B112" s="2"/>
-      <c r="C112" s="2"/>
-      <c r="D112" s="2"/>
-      <c r="E112" s="2"/>
-      <c r="F112" s="2"/>
-      <c r="G112" s="2"/>
-      <c r="H112" s="2"/>
-      <c r="I112" s="2"/>
-      <c r="J112" s="2"/>
-      <c r="K112" s="2"/>
-      <c r="L112" s="2"/>
-      <c r="M112" s="2"/>
-      <c r="N112" s="2"/>
-      <c r="O112" s="2"/>
-      <c r="P112" s="2"/>
-      <c r="Q112" s="2"/>
-      <c r="R112" s="2"/>
-      <c r="S112" s="2"/>
-      <c r="T112" s="2"/>
-      <c r="U112" s="2"/>
-      <c r="V112" s="2"/>
-      <c r="W112" s="2"/>
-      <c r="X112" s="2"/>
-      <c r="Y112" s="2"/>
-      <c r="Z112" s="2"/>
-      <c r="AA112" s="2"/>
-      <c r="AB112" s="2"/>
-      <c r="AC112" s="2"/>
-      <c r="AD112" s="2"/>
-      <c r="AE112" s="2"/>
-      <c r="AF112" s="2"/>
-      <c r="AG112" s="2"/>
-      <c r="AH112" s="2"/>
-      <c r="AI112" s="2"/>
-      <c r="AJ112" s="2"/>
-      <c r="AK112" s="2"/>
-      <c r="AL112" s="2"/>
-      <c r="AM112" s="2"/>
-      <c r="AN112" s="2"/>
-      <c r="AO112" s="2"/>
-      <c r="AP112" s="2"/>
-      <c r="AQ112" s="2"/>
-      <c r="AR112" s="2"/>
-      <c r="AS112" s="2"/>
-      <c r="AT112" s="2"/>
-      <c r="AU112" s="2"/>
-      <c r="AV112" s="2"/>
-      <c r="AW112" s="2"/>
-    </row>
-    <row r="113" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B113" s="1" t="s">
+      <c r="A112" s="1"/>
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
+      <c r="F112" s="1"/>
+      <c r="G112" s="1"/>
+      <c r="H112" s="1"/>
+      <c r="I112" s="1"/>
+      <c r="J112" s="1"/>
+      <c r="K112" s="1"/>
+      <c r="L112" s="1"/>
+      <c r="M112" s="1"/>
+      <c r="N112" s="1"/>
+      <c r="O112" s="1"/>
+      <c r="P112" s="1"/>
+      <c r="Q112" s="1"/>
+      <c r="R112" s="1"/>
+      <c r="S112" s="1"/>
+      <c r="T112" s="1"/>
+      <c r="U112" s="1"/>
+      <c r="V112" s="1"/>
+      <c r="W112" s="1"/>
+      <c r="X112" s="1"/>
+      <c r="Y112" s="1"/>
+      <c r="Z112" s="1"/>
+      <c r="AA112" s="1"/>
+      <c r="AB112" s="1"/>
+      <c r="AC112" s="1"/>
+      <c r="AD112" s="1"/>
+      <c r="AE112" s="1"/>
+      <c r="AF112" s="1"/>
+      <c r="AG112" s="1"/>
+      <c r="AH112" s="1"/>
+      <c r="AI112" s="1"/>
+      <c r="AJ112" s="1"/>
+      <c r="AK112" s="1"/>
+      <c r="AL112" s="1"/>
+      <c r="AM112" s="1"/>
+      <c r="AN112" s="1"/>
+      <c r="AO112" s="1"/>
+      <c r="AP112" s="1"/>
+      <c r="AQ112" s="1"/>
+      <c r="AR112" s="1"/>
+      <c r="AS112" s="1"/>
+      <c r="AT112" s="1"/>
+      <c r="AU112" s="1"/>
+      <c r="AV112" s="1"/>
+      <c r="AW112" s="1"/>
+    </row>
+    <row r="113" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B113" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C113" s="1"/>
-    </row>
-    <row r="114" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="C113" s="2"/>
+    </row>
+    <row r="114" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C114" t="s">
         <v>2</v>
       </c>
@@ -10510,7 +10754,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C115" t="s">
         <v>4</v>
       </c>
@@ -10524,7 +10768,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="116" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C116" t="s">
         <v>6</v>
       </c>
@@ -10574,7 +10818,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="117" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C117">
         <v>188</v>
       </c>
@@ -10624,7 +10868,11 @@
         <v>155</v>
       </c>
     </row>
-    <row r="118" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <f>_xlfn.T.TEST(C117:C146,D117:D146,2,3)</f>
+        <v>0.36620529665679535</v>
+      </c>
       <c r="C118">
         <v>186</v>
       </c>
@@ -10674,7 +10922,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="119" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C119">
         <v>188</v>
       </c>
@@ -10724,7 +10972,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="120" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C120">
         <v>183</v>
       </c>
@@ -10792,7 +11040,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="121" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C121">
         <v>180</v>
       </c>
@@ -10817,6 +11065,10 @@
       <c r="M121">
         <v>137</v>
       </c>
+      <c r="O121">
+        <f>_xlfn.T.TEST(Q117:Q146, R117:R146,2,3)</f>
+        <v>4.126526080786172E-2</v>
+      </c>
       <c r="Q121">
         <v>192</v>
       </c>
@@ -10863,7 +11115,7 @@
         <v>183.5</v>
       </c>
     </row>
-    <row r="122" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C122">
         <v>153</v>
       </c>
@@ -10934,7 +11186,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="123" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C123">
         <v>179</v>
       </c>
@@ -11005,7 +11257,7 @@
         <v>141.5</v>
       </c>
     </row>
-    <row r="124" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C124">
         <v>167</v>
       </c>
@@ -11076,7 +11328,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="125" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C125">
         <v>176</v>
       </c>
@@ -11126,7 +11378,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="126" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C126">
         <v>176</v>
       </c>
@@ -11176,7 +11428,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="127" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C127">
         <v>193</v>
       </c>
@@ -11226,7 +11478,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="128" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C128">
         <v>181</v>
       </c>
@@ -12076,7 +12328,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="145" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C145">
         <v>194</v>
       </c>
@@ -12126,7 +12378,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="146" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C146">
         <v>185</v>
       </c>
@@ -12176,7 +12428,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="147" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
         <v>19</v>
       </c>
@@ -12254,7 +12506,7 @@
         <v>150.5</v>
       </c>
     </row>
-    <row r="148" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
         <v>18</v>
       </c>
@@ -12332,13 +12584,13 @@
         <v>14.866666666666667</v>
       </c>
     </row>
-    <row r="150" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B150" s="1" t="s">
+    <row r="150" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B150" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C150" s="1"/>
-    </row>
-    <row r="151" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="C150" s="2"/>
+    </row>
+    <row r="151" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C151" t="s">
         <v>2</v>
       </c>
@@ -12346,7 +12598,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C152" t="s">
         <v>4</v>
       </c>
@@ -12360,7 +12612,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="153" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C153" t="s">
         <v>6</v>
       </c>
@@ -12410,7 +12662,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="154" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C154">
         <v>110</v>
       </c>
@@ -12460,7 +12712,11 @@
         <v>159</v>
       </c>
     </row>
-    <row r="155" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <f>_xlfn.T.TEST(C154:C183, D154:D183,2,3)</f>
+        <v>1.4182996238776073E-2</v>
+      </c>
       <c r="C155">
         <v>115</v>
       </c>
@@ -12510,7 +12766,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="156" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C156">
         <v>129</v>
       </c>
@@ -12560,7 +12816,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="157" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C157">
         <v>116</v>
       </c>
@@ -12610,7 +12866,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="158" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C158">
         <v>141</v>
       </c>
@@ -12660,7 +12916,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="159" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C159">
         <v>159</v>
       </c>
@@ -12685,6 +12941,10 @@
       <c r="M159">
         <v>148</v>
       </c>
+      <c r="O159">
+        <f>_xlfn.T.TEST(Q154:Q183, R154:R183,2,3)</f>
+        <v>1.0913292936826763E-3</v>
+      </c>
       <c r="Q159">
         <v>170</v>
       </c>
@@ -12710,7 +12970,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="160" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C160">
         <v>181</v>
       </c>
@@ -14067,10 +14327,10 @@
       </c>
     </row>
     <row r="187" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B187" s="1" t="s">
+      <c r="B187" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C187" s="1"/>
+      <c r="C187" s="2"/>
     </row>
     <row r="188" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C188" t="s">
@@ -14244,7 +14504,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="193" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C193">
         <v>172</v>
       </c>
@@ -14294,7 +14554,11 @@
         <v>137</v>
       </c>
     </row>
-    <row r="194" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <f>_xlfn.T.TEST(C191:C220, D191:D220,2,3)</f>
+        <v>0.1550250584094213</v>
+      </c>
       <c r="C194">
         <v>179</v>
       </c>
@@ -14344,7 +14608,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="195" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C195">
         <v>165</v>
       </c>
@@ -14394,7 +14658,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="196" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C196">
         <v>179</v>
       </c>
@@ -14444,7 +14708,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="197" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C197">
         <v>171</v>
       </c>
@@ -14469,6 +14733,10 @@
       <c r="M197">
         <v>142</v>
       </c>
+      <c r="O197">
+        <f>_xlfn.T.TEST(Q191:Q220, R191:R220,2,3)</f>
+        <v>8.8765353162880269E-4</v>
+      </c>
       <c r="Q197">
         <v>196</v>
       </c>
@@ -14494,7 +14762,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="198" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C198">
         <v>175</v>
       </c>
@@ -14544,7 +14812,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="199" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C199">
         <v>175</v>
       </c>
@@ -14594,7 +14862,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="200" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C200">
         <v>180</v>
       </c>
@@ -14644,7 +14912,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="201" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C201">
         <v>176</v>
       </c>
@@ -14694,7 +14962,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="202" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C202">
         <v>171</v>
       </c>
@@ -14744,7 +15012,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="203" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C203">
         <v>171</v>
       </c>
@@ -14794,7 +15062,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="204" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C204">
         <v>168</v>
       </c>
@@ -14844,7 +15112,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="205" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C205">
         <v>178</v>
       </c>
@@ -14894,7 +15162,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="206" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C206">
         <v>191</v>
       </c>
@@ -14944,7 +15212,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="207" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C207">
         <v>188</v>
       </c>
@@ -14994,7 +15262,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="208" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C208">
         <v>171</v>
       </c>
@@ -15801,63 +16069,63 @@
       </c>
     </row>
     <row r="223" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A223" s="2"/>
-      <c r="B223" s="2"/>
-      <c r="C223" s="2"/>
-      <c r="D223" s="2"/>
-      <c r="E223" s="2"/>
-      <c r="F223" s="2"/>
-      <c r="G223" s="2"/>
-      <c r="H223" s="2"/>
-      <c r="I223" s="2"/>
-      <c r="J223" s="2"/>
-      <c r="K223" s="2"/>
-      <c r="L223" s="2"/>
-      <c r="M223" s="2"/>
-      <c r="N223" s="2"/>
-      <c r="O223" s="2"/>
-      <c r="P223" s="2"/>
-      <c r="Q223" s="2"/>
-      <c r="R223" s="2"/>
-      <c r="S223" s="2"/>
-      <c r="T223" s="2"/>
-      <c r="U223" s="2"/>
-      <c r="V223" s="2"/>
-      <c r="W223" s="2"/>
-      <c r="X223" s="2"/>
-      <c r="Y223" s="2"/>
-      <c r="Z223" s="2"/>
-      <c r="AA223" s="2"/>
-      <c r="AB223" s="2"/>
-      <c r="AC223" s="2"/>
-      <c r="AD223" s="2"/>
-      <c r="AE223" s="2"/>
-      <c r="AF223" s="2"/>
-      <c r="AG223" s="2"/>
-      <c r="AH223" s="2"/>
-      <c r="AI223" s="2"/>
-      <c r="AJ223" s="2"/>
-      <c r="AK223" s="2"/>
-      <c r="AL223" s="2"/>
-      <c r="AM223" s="2"/>
-      <c r="AN223" s="2"/>
-      <c r="AO223" s="2"/>
-      <c r="AP223" s="2"/>
-      <c r="AQ223" s="2"/>
-      <c r="AR223" s="2"/>
-      <c r="AS223" s="2"/>
-      <c r="AT223" s="2"/>
-      <c r="AU223" s="2"/>
-      <c r="AV223" s="2"/>
-      <c r="AW223" s="2"/>
+      <c r="A223" s="1"/>
+      <c r="B223" s="1"/>
+      <c r="C223" s="1"/>
+      <c r="D223" s="1"/>
+      <c r="E223" s="1"/>
+      <c r="F223" s="1"/>
+      <c r="G223" s="1"/>
+      <c r="H223" s="1"/>
+      <c r="I223" s="1"/>
+      <c r="J223" s="1"/>
+      <c r="K223" s="1"/>
+      <c r="L223" s="1"/>
+      <c r="M223" s="1"/>
+      <c r="N223" s="1"/>
+      <c r="O223" s="1"/>
+      <c r="P223" s="1"/>
+      <c r="Q223" s="1"/>
+      <c r="R223" s="1"/>
+      <c r="S223" s="1"/>
+      <c r="T223" s="1"/>
+      <c r="U223" s="1"/>
+      <c r="V223" s="1"/>
+      <c r="W223" s="1"/>
+      <c r="X223" s="1"/>
+      <c r="Y223" s="1"/>
+      <c r="Z223" s="1"/>
+      <c r="AA223" s="1"/>
+      <c r="AB223" s="1"/>
+      <c r="AC223" s="1"/>
+      <c r="AD223" s="1"/>
+      <c r="AE223" s="1"/>
+      <c r="AF223" s="1"/>
+      <c r="AG223" s="1"/>
+      <c r="AH223" s="1"/>
+      <c r="AI223" s="1"/>
+      <c r="AJ223" s="1"/>
+      <c r="AK223" s="1"/>
+      <c r="AL223" s="1"/>
+      <c r="AM223" s="1"/>
+      <c r="AN223" s="1"/>
+      <c r="AO223" s="1"/>
+      <c r="AP223" s="1"/>
+      <c r="AQ223" s="1"/>
+      <c r="AR223" s="1"/>
+      <c r="AS223" s="1"/>
+      <c r="AT223" s="1"/>
+      <c r="AU223" s="1"/>
+      <c r="AV223" s="1"/>
+      <c r="AW223" s="1"/>
     </row>
     <row r="224" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="B224" s="1" t="s">
+      <c r="B224" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C224" s="1"/>
-    </row>
-    <row r="225" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C224" s="2"/>
+    </row>
+    <row r="225" spans="1:40" x14ac:dyDescent="0.25">
       <c r="C225" t="s">
         <v>2</v>
       </c>
@@ -15865,7 +16133,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="226" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:40" x14ac:dyDescent="0.25">
       <c r="C226" t="s">
         <v>4</v>
       </c>
@@ -15879,7 +16147,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="227" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:40" x14ac:dyDescent="0.25">
       <c r="C227" t="s">
         <v>6</v>
       </c>
@@ -15929,7 +16197,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="228" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:40" x14ac:dyDescent="0.25">
       <c r="C228">
         <v>170</v>
       </c>
@@ -15979,7 +16247,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="229" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:40" x14ac:dyDescent="0.25">
       <c r="C229">
         <v>173</v>
       </c>
@@ -16047,7 +16315,11 @@
         <v>28</v>
       </c>
     </row>
-    <row r="230" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <f>_xlfn.T.TEST(C228:C257, D228:D257,2,3)</f>
+        <v>0.12634293093395005</v>
+      </c>
       <c r="C230">
         <v>180</v>
       </c>
@@ -16118,7 +16390,7 @@
         <v>149.5</v>
       </c>
     </row>
-    <row r="231" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:40" x14ac:dyDescent="0.25">
       <c r="C231">
         <v>177</v>
       </c>
@@ -16189,7 +16461,7 @@
         <v>131.5</v>
       </c>
     </row>
-    <row r="232" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:40" x14ac:dyDescent="0.25">
       <c r="C232">
         <v>180</v>
       </c>
@@ -16260,7 +16532,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="233" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:40" x14ac:dyDescent="0.25">
       <c r="C233">
         <v>182</v>
       </c>
@@ -16331,7 +16603,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="234" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:40" x14ac:dyDescent="0.25">
       <c r="C234">
         <v>171</v>
       </c>
@@ -16356,6 +16628,10 @@
       <c r="M234">
         <v>128</v>
       </c>
+      <c r="O234">
+        <f>_xlfn.T.TEST(Q228:Q257,R228:R257,2,3)</f>
+        <v>0.88692574079649966</v>
+      </c>
       <c r="Q234">
         <v>170</v>
       </c>
@@ -16380,8 +16656,11 @@
       <c r="AA234">
         <v>119</v>
       </c>
-    </row>
-    <row r="235" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="AL234" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="235" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C235">
         <v>180</v>
       </c>
@@ -16431,7 +16710,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="236" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:40" x14ac:dyDescent="0.25">
       <c r="C236">
         <v>171</v>
       </c>
@@ -16480,8 +16759,11 @@
       <c r="AA236">
         <v>123</v>
       </c>
-    </row>
-    <row r="237" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="AL236" s="5"/>
+      <c r="AM236" s="5"/>
+      <c r="AN236" s="5"/>
+    </row>
+    <row r="237" spans="1:40" x14ac:dyDescent="0.25">
       <c r="C237">
         <v>171</v>
       </c>
@@ -16530,8 +16812,11 @@
       <c r="AA237">
         <v>102</v>
       </c>
-    </row>
-    <row r="238" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="AL237" s="3"/>
+      <c r="AM237" s="3"/>
+      <c r="AN237" s="3"/>
+    </row>
+    <row r="238" spans="1:40" x14ac:dyDescent="0.25">
       <c r="C238">
         <v>168</v>
       </c>
@@ -16580,8 +16865,11 @@
       <c r="AA238">
         <v>108</v>
       </c>
-    </row>
-    <row r="239" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="AL238" s="3"/>
+      <c r="AM238" s="3"/>
+      <c r="AN238" s="3"/>
+    </row>
+    <row r="239" spans="1:40" x14ac:dyDescent="0.25">
       <c r="C239">
         <v>164</v>
       </c>
@@ -16630,8 +16918,11 @@
       <c r="AA239">
         <v>114</v>
       </c>
-    </row>
-    <row r="240" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="AL239" s="3"/>
+      <c r="AM239" s="3"/>
+      <c r="AN239" s="3"/>
+    </row>
+    <row r="240" spans="1:40" x14ac:dyDescent="0.25">
       <c r="C240">
         <v>178</v>
       </c>
@@ -16680,8 +16971,11 @@
       <c r="AA240">
         <v>126</v>
       </c>
-    </row>
-    <row r="241" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="AL240" s="3"/>
+      <c r="AM240" s="3"/>
+      <c r="AN240" s="3"/>
+    </row>
+    <row r="241" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C241">
         <v>179</v>
       </c>
@@ -16730,8 +17024,11 @@
       <c r="AA241">
         <v>113</v>
       </c>
-    </row>
-    <row r="242" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="AL241" s="3"/>
+      <c r="AM241" s="3"/>
+      <c r="AN241" s="3"/>
+    </row>
+    <row r="242" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C242">
         <v>174</v>
       </c>
@@ -16780,8 +17077,11 @@
       <c r="AA242">
         <v>111</v>
       </c>
-    </row>
-    <row r="243" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="AL242" s="3"/>
+      <c r="AM242" s="3"/>
+      <c r="AN242" s="3"/>
+    </row>
+    <row r="243" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C243">
         <v>156</v>
       </c>
@@ -16830,8 +17130,11 @@
       <c r="AA243">
         <v>115</v>
       </c>
-    </row>
-    <row r="244" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="AL243" s="3"/>
+      <c r="AM243" s="3"/>
+      <c r="AN243" s="3"/>
+    </row>
+    <row r="244" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C244">
         <v>173</v>
       </c>
@@ -16880,8 +17183,11 @@
       <c r="AA244">
         <v>102</v>
       </c>
-    </row>
-    <row r="245" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="AL244" s="3"/>
+      <c r="AM244" s="3"/>
+      <c r="AN244" s="3"/>
+    </row>
+    <row r="245" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C245">
         <v>171</v>
       </c>
@@ -16930,8 +17236,11 @@
       <c r="AA245">
         <v>114</v>
       </c>
-    </row>
-    <row r="246" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="AL245" s="3"/>
+      <c r="AM245" s="3"/>
+      <c r="AN245" s="3"/>
+    </row>
+    <row r="246" spans="3:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C246">
         <v>174</v>
       </c>
@@ -16980,8 +17289,11 @@
       <c r="AA246">
         <v>106</v>
       </c>
-    </row>
-    <row r="247" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="AL246" s="4"/>
+      <c r="AM246" s="4"/>
+      <c r="AN246" s="4"/>
+    </row>
+    <row r="247" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C247">
         <v>174</v>
       </c>
@@ -17031,7 +17343,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="248" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="248" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C248">
         <v>168</v>
       </c>
@@ -17081,7 +17393,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="249" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="249" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C249">
         <v>166</v>
       </c>
@@ -17131,7 +17443,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="250" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="250" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C250">
         <v>169</v>
       </c>
@@ -17181,7 +17493,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="251" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="251" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C251">
         <v>165</v>
       </c>
@@ -17231,7 +17543,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="252" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="252" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C252">
         <v>184</v>
       </c>
@@ -17281,7 +17593,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="253" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="253" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C253">
         <v>172</v>
       </c>
@@ -17331,7 +17643,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="254" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="254" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C254">
         <v>178</v>
       </c>
@@ -17381,7 +17693,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="255" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="255" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C255">
         <v>181</v>
       </c>
@@ -17431,7 +17743,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="256" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="256" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C256">
         <v>154</v>
       </c>
@@ -17481,7 +17793,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="257" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C257">
         <v>170</v>
       </c>
@@ -17531,7 +17843,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="258" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B258" t="s">
         <v>19</v>
       </c>
@@ -17609,7 +17921,7 @@
         <v>114.5</v>
       </c>
     </row>
-    <row r="259" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B259" t="s">
         <v>18</v>
       </c>
@@ -17687,13 +17999,13 @@
         <v>5.8666666666666663</v>
       </c>
     </row>
-    <row r="261" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B261" s="1" t="s">
+    <row r="261" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B261" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C261" s="1"/>
-    </row>
-    <row r="262" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="C261" s="2"/>
+    </row>
+    <row r="262" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C262" t="s">
         <v>2</v>
       </c>
@@ -17701,7 +18013,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="263" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C263" t="s">
         <v>4</v>
       </c>
@@ -17715,7 +18027,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="264" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C264" t="s">
         <v>6</v>
       </c>
@@ -17765,7 +18077,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="265" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C265">
         <v>149</v>
       </c>
@@ -17815,7 +18127,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="266" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C266">
         <v>157</v>
       </c>
@@ -17865,7 +18177,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="267" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C267">
         <v>141</v>
       </c>
@@ -17915,7 +18227,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="268" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C268">
         <v>159</v>
       </c>
@@ -17940,6 +18252,10 @@
       <c r="M268">
         <v>122</v>
       </c>
+      <c r="O268">
+        <f>_xlfn.T.TEST(Q265:Q294, R265:R294,2,3)</f>
+        <v>0.25639914589801333</v>
+      </c>
       <c r="Q268">
         <v>152</v>
       </c>
@@ -17965,7 +18281,11 @@
         <v>126</v>
       </c>
     </row>
-    <row r="269" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <f>_xlfn.T.TEST(C265:C294, D265:D294,2,3)</f>
+        <v>9.7359444548818196E-3</v>
+      </c>
       <c r="C269">
         <v>144</v>
       </c>
@@ -18015,7 +18335,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="270" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C270">
         <v>154</v>
       </c>
@@ -18065,7 +18385,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="271" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C271">
         <v>159</v>
       </c>
@@ -18115,7 +18435,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="272" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C272">
         <v>161</v>
       </c>
@@ -18965,7 +19285,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="289" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C289">
         <v>159</v>
       </c>
@@ -19015,7 +19335,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="290" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C290">
         <v>153</v>
       </c>
@@ -19065,7 +19385,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="291" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C291">
         <v>138</v>
       </c>
@@ -19115,7 +19435,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="292" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C292">
         <v>159</v>
       </c>
@@ -19165,7 +19485,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="293" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C293">
         <v>155</v>
       </c>
@@ -19215,7 +19535,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="294" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C294">
         <v>158</v>
       </c>
@@ -19265,7 +19585,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="295" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B295" t="s">
         <v>19</v>
       </c>
@@ -19343,7 +19663,7 @@
         <v>126.5</v>
       </c>
     </row>
-    <row r="296" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B296" t="s">
         <v>18</v>
       </c>
@@ -19421,13 +19741,13 @@
         <v>6.9933333333333296</v>
       </c>
     </row>
-    <row r="298" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B298" s="1" t="s">
+    <row r="298" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B298" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C298" s="1"/>
-    </row>
-    <row r="299" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="C298" s="2"/>
+    </row>
+    <row r="299" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C299" t="s">
         <v>2</v>
       </c>
@@ -19435,7 +19755,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="300" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C300" t="s">
         <v>4</v>
       </c>
@@ -19449,7 +19769,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="301" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C301" t="s">
         <v>6</v>
       </c>
@@ -19499,7 +19819,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="302" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C302">
         <v>152</v>
       </c>
@@ -19549,7 +19869,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="303" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C303">
         <v>149</v>
       </c>
@@ -19599,7 +19919,11 @@
         <v>66</v>
       </c>
     </row>
-    <row r="304" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <f>_xlfn.T.TEST(C302:C331, D302:D331,2,3)</f>
+        <v>2.717344545705769E-12</v>
+      </c>
       <c r="C304">
         <v>141</v>
       </c>
@@ -19623,6 +19947,10 @@
       </c>
       <c r="M304">
         <v>115</v>
+      </c>
+      <c r="O304">
+        <f>_xlfn.T.TEST(Q302:Q331, R302:R331,2,3)</f>
+        <v>1.4830002172507644E-10</v>
       </c>
       <c r="Q304">
         <v>139</v>
@@ -21168,7 +21496,7 @@
     <mergeCell ref="B113:C113"/>
     <mergeCell ref="B150:C150"/>
   </mergeCells>
-  <conditionalFormatting sqref="C6:F35 J6:M35 Q6:T35 X6:AA35 AD6:AF7 AH6:AI7">
+  <conditionalFormatting sqref="C6:F35 J6:M35 Q6:T35 X6:AA35 AD6:AF7 AH6:AI7 AK6:AK7">
     <cfRule type="expression" dxfId="27" priority="28">
       <formula>OR(C6&gt;C$36+2*C$37,C6&lt;C$36-2*C$37)</formula>
     </cfRule>
